--- a/数据整理/strategy/top100_rank.xlsx
+++ b/数据整理/strategy/top100_rank.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="2021-Q1基金重仓股T100" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>代码</t>
   </si>
@@ -28,951 +28,1009 @@
     <t>2020-Q4持有数量（只）</t>
   </si>
   <si>
-    <t>环比</t>
-  </si>
-  <si>
-    <t>环比百分比</t>
-  </si>
-  <si>
-    <t>升Or降</t>
+    <t>持有数量环比</t>
+  </si>
+  <si>
+    <t>持有数量环比百分比</t>
+  </si>
+  <si>
+    <t>持有数量升或降</t>
+  </si>
+  <si>
+    <t>2021-Q1持有市值（亿元）</t>
+  </si>
+  <si>
+    <t>2020-Q4持有市值（亿元）</t>
+  </si>
+  <si>
+    <t>持有市值环比</t>
+  </si>
+  <si>
+    <t>持有市值环比百分比</t>
+  </si>
+  <si>
+    <t>持有市值升或降</t>
   </si>
   <si>
     <t>600519</t>
   </si>
   <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
     <t>000858</t>
   </si>
   <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
     <t>600036</t>
   </si>
   <si>
+    <t>招商银行</t>
+  </si>
+  <si>
     <t>601318</t>
   </si>
   <si>
+    <t>中国平安</t>
+  </si>
+  <si>
     <t>601888</t>
   </si>
   <si>
+    <t>中国中免</t>
+  </si>
+  <si>
     <t>000333</t>
   </si>
   <si>
+    <t>美的集团</t>
+  </si>
+  <si>
     <t>300750</t>
   </si>
   <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
     <t>601166</t>
   </si>
   <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
     <t>00700</t>
   </si>
   <si>
+    <t>腾讯控股</t>
+  </si>
+  <si>
     <t>002415</t>
   </si>
   <si>
+    <t>海康威视</t>
+  </si>
+  <si>
     <t>600276</t>
   </si>
   <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
     <t>300760</t>
   </si>
   <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
     <t>603259</t>
   </si>
   <si>
+    <t>药明康德</t>
+  </si>
+  <si>
     <t>000661</t>
   </si>
   <si>
+    <t>长春高新</t>
+  </si>
+  <si>
     <t>000651</t>
   </si>
   <si>
+    <t>格力电器</t>
+  </si>
+  <si>
     <t>601012</t>
   </si>
   <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
     <t>600887</t>
   </si>
   <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
     <t>000002</t>
   </si>
   <si>
+    <t>万科A</t>
+  </si>
+  <si>
     <t>000568</t>
   </si>
   <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
     <t>000001</t>
   </si>
   <si>
+    <t>平安银行</t>
+  </si>
+  <si>
     <t>600031</t>
   </si>
   <si>
+    <t>三一重工</t>
+  </si>
+  <si>
     <t>600309</t>
   </si>
   <si>
+    <t>万华化学</t>
+  </si>
+  <si>
     <t>300014</t>
   </si>
   <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
     <t>002142</t>
   </si>
   <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
     <t>300122</t>
   </si>
   <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
     <t>600690</t>
   </si>
   <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
     <t>300059</t>
   </si>
   <si>
+    <t>东方财富</t>
+  </si>
+  <si>
     <t>600809</t>
   </si>
   <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>03690</t>
   </si>
   <si>
+    <t>美团-W</t>
+  </si>
+  <si>
     <t>300124</t>
   </si>
   <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
     <t>603501</t>
   </si>
   <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
     <t>601398</t>
   </si>
   <si>
+    <t>工商银行</t>
+  </si>
+  <si>
     <t>002475</t>
   </si>
   <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
     <t>601601</t>
   </si>
   <si>
+    <t>中国太保</t>
+  </si>
+  <si>
     <t>000725</t>
   </si>
   <si>
+    <t>京东方A</t>
+  </si>
+  <si>
     <t>002027</t>
   </si>
   <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
     <t>601899</t>
   </si>
   <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
     <t>600900</t>
   </si>
   <si>
+    <t>长江电力</t>
+  </si>
+  <si>
     <t>002460</t>
   </si>
   <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
     <t>300015</t>
   </si>
   <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
     <t>300347</t>
   </si>
   <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
     <t>002271</t>
   </si>
   <si>
+    <t>东方雨虹</t>
+  </si>
+  <si>
     <t>002311</t>
   </si>
   <si>
+    <t>海大集团</t>
+  </si>
+  <si>
     <t>002352</t>
   </si>
   <si>
+    <t>顺丰控股</t>
+  </si>
+  <si>
     <t>300274</t>
   </si>
   <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
     <t>600048</t>
   </si>
   <si>
+    <t>保利地产</t>
+  </si>
+  <si>
     <t>601939</t>
   </si>
   <si>
+    <t>建设银行</t>
+  </si>
+  <si>
     <t>603882</t>
   </si>
   <si>
+    <t>金域医学</t>
+  </si>
+  <si>
     <t>600426</t>
   </si>
   <si>
+    <t>华鲁恒升</t>
+  </si>
+  <si>
     <t>300408</t>
   </si>
   <si>
+    <t>三环集团</t>
+  </si>
+  <si>
     <t>600570</t>
   </si>
   <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
     <t>300450</t>
   </si>
   <si>
+    <t>先导智能</t>
+  </si>
+  <si>
     <t>600438</t>
   </si>
   <si>
+    <t>通威股份</t>
+  </si>
+  <si>
     <t>603799</t>
   </si>
   <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
     <t>300496</t>
   </si>
   <si>
+    <t>中科创达</t>
+  </si>
+  <si>
     <t>300782</t>
   </si>
   <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
     <t>600030</t>
   </si>
   <si>
+    <t>中信证券</t>
+  </si>
+  <si>
     <t>002714</t>
   </si>
   <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
     <t>000100</t>
   </si>
   <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
     <t>002821</t>
   </si>
   <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
     <t>01810</t>
   </si>
   <si>
+    <t>小米集团-W</t>
+  </si>
+  <si>
     <t>600763</t>
   </si>
   <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
     <t>002410</t>
   </si>
   <si>
+    <t>广联达</t>
+  </si>
+  <si>
     <t>688036</t>
   </si>
   <si>
+    <t>传音控股</t>
+  </si>
+  <si>
     <t>300454</t>
   </si>
   <si>
+    <t>深信服</t>
+  </si>
+  <si>
     <t>601233</t>
   </si>
   <si>
+    <t>桐昆股份</t>
+  </si>
+  <si>
     <t>688111</t>
   </si>
   <si>
+    <t>金山办公</t>
+  </si>
+  <si>
     <t>300012</t>
   </si>
   <si>
+    <t>华测检测</t>
+  </si>
+  <si>
     <t>603456</t>
   </si>
   <si>
+    <t>九洲药业</t>
+  </si>
+  <si>
     <t>002304</t>
   </si>
   <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
     <t>603486</t>
   </si>
   <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
     <t>601799</t>
   </si>
   <si>
+    <t>星宇股份</t>
+  </si>
+  <si>
     <t>603345</t>
   </si>
   <si>
+    <t>安井食品</t>
+  </si>
+  <si>
     <t>00941</t>
   </si>
   <si>
+    <t>中国移动</t>
+  </si>
+  <si>
     <t>603806</t>
   </si>
   <si>
+    <t>福斯特</t>
+  </si>
+  <si>
     <t>002594</t>
   </si>
   <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
     <t>300759</t>
   </si>
   <si>
+    <t>康龙化成</t>
+  </si>
+  <si>
     <t>300529</t>
   </si>
   <si>
+    <t>健帆生物</t>
+  </si>
+  <si>
     <t>601668</t>
   </si>
   <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
     <t>600926</t>
   </si>
   <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
     <t>600660</t>
   </si>
   <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
     <t>02269</t>
   </si>
   <si>
+    <t>药明生物</t>
+  </si>
+  <si>
     <t>688169</t>
   </si>
   <si>
+    <t>石头科技</t>
+  </si>
+  <si>
     <t>002709</t>
   </si>
   <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
     <t>00388</t>
   </si>
   <si>
+    <t>香港交易所</t>
+  </si>
+  <si>
     <t>600585</t>
   </si>
   <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
     <t>002179</t>
   </si>
   <si>
+    <t>中航光电</t>
+  </si>
+  <si>
     <t>000733</t>
   </si>
   <si>
+    <t>振华科技</t>
+  </si>
+  <si>
     <t>002568</t>
   </si>
   <si>
+    <t>百润股份</t>
+  </si>
+  <si>
     <t>002541</t>
   </si>
   <si>
+    <t>鸿路钢构</t>
+  </si>
+  <si>
     <t>603899</t>
   </si>
   <si>
+    <t>晨光文具</t>
+  </si>
+  <si>
     <t>601966</t>
   </si>
   <si>
+    <t>玲珑轮胎</t>
+  </si>
+  <si>
     <t>300601</t>
   </si>
   <si>
+    <t>康泰生物</t>
+  </si>
+  <si>
     <t>600176</t>
   </si>
   <si>
+    <t>中国巨石</t>
+  </si>
+  <si>
     <t>300413</t>
   </si>
   <si>
+    <t>芒果超媒</t>
+  </si>
+  <si>
     <t>300595</t>
   </si>
   <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
     <t>002078</t>
   </si>
   <si>
+    <t>太阳纸业</t>
+  </si>
+  <si>
     <t>600754</t>
   </si>
   <si>
+    <t>锦江酒店</t>
+  </si>
+  <si>
     <t>002236</t>
   </si>
   <si>
+    <t>大华股份</t>
+  </si>
+  <si>
     <t>002049</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>腾讯控股</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>长春高新</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>万华化学</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>海尔智家</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>美团-W</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>长江电力</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>东方雨虹</t>
-  </si>
-  <si>
-    <t>海大集团</t>
-  </si>
-  <si>
-    <t>顺丰控股</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>金域医学</t>
-  </si>
-  <si>
-    <t>华鲁恒升</t>
-  </si>
-  <si>
-    <t>三环集团</t>
-  </si>
-  <si>
-    <t>恒生电子</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>中科创达</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>凯莱英</t>
-  </si>
-  <si>
-    <t>小米集团-W</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>广联达</t>
-  </si>
-  <si>
-    <t>传音控股</t>
-  </si>
-  <si>
-    <t>深信服</t>
-  </si>
-  <si>
-    <t>桐昆股份</t>
-  </si>
-  <si>
-    <t>金山办公</t>
-  </si>
-  <si>
-    <t>华测检测</t>
-  </si>
-  <si>
-    <t>九洲药业</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
-    <t>科沃斯</t>
-  </si>
-  <si>
-    <t>星宇股份</t>
-  </si>
-  <si>
-    <t>安井食品</t>
-  </si>
-  <si>
-    <t>中国移动</t>
-  </si>
-  <si>
-    <t>福斯特</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>康龙化成</t>
-  </si>
-  <si>
-    <t>健帆生物</t>
-  </si>
-  <si>
-    <t>中国建筑</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
-  </si>
-  <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
-    <t>药明生物</t>
-  </si>
-  <si>
-    <t>石头科技</t>
-  </si>
-  <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>香港交易所</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>百润股份</t>
-  </si>
-  <si>
-    <t>鸿路钢构</t>
-  </si>
-  <si>
-    <t>晨光文具</t>
-  </si>
-  <si>
-    <t>玲珑轮胎</t>
-  </si>
-  <si>
-    <t>康泰生物</t>
-  </si>
-  <si>
-    <t>中国巨石</t>
-  </si>
-  <si>
-    <t>芒果超媒</t>
-  </si>
-  <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
-    <t>太阳纸业</t>
-  </si>
-  <si>
-    <t>锦江酒店</t>
-  </si>
-  <si>
-    <t>大华股份</t>
-  </si>
-  <si>
     <t>紫光国微</t>
-  </si>
-  <si>
-    <t>2.69%</t>
-  </si>
-  <si>
-    <t>-8.68%</t>
-  </si>
-  <si>
-    <t>15.31%</t>
-  </si>
-  <si>
-    <t>-25.10%</t>
-  </si>
-  <si>
-    <t>7.08%</t>
-  </si>
-  <si>
-    <t>-25.14%</t>
-  </si>
-  <si>
-    <t>-10.73%</t>
-  </si>
-  <si>
-    <t>29.52%</t>
-  </si>
-  <si>
-    <t>59.75%</t>
-  </si>
-  <si>
-    <t>70.87%</t>
-  </si>
-  <si>
-    <t>-24.92%</t>
-  </si>
-  <si>
-    <t>4.46%</t>
-  </si>
-  <si>
-    <t>18.92%</t>
-  </si>
-  <si>
-    <t>15.49%</t>
-  </si>
-  <si>
-    <t>17.65%</t>
-  </si>
-  <si>
-    <t>-22.92%</t>
-  </si>
-  <si>
-    <t>-16.41%</t>
-  </si>
-  <si>
-    <t>26.05%</t>
-  </si>
-  <si>
-    <t>-14.54%</t>
-  </si>
-  <si>
-    <t>23.00%</t>
-  </si>
-  <si>
-    <t>-17.25%</t>
-  </si>
-  <si>
-    <t>34.32%</t>
-  </si>
-  <si>
-    <t>-17.23%</t>
-  </si>
-  <si>
-    <t>17.53%</t>
-  </si>
-  <si>
-    <t>45.08%</t>
-  </si>
-  <si>
-    <t>23.39%</t>
-  </si>
-  <si>
-    <t>-34.73%</t>
-  </si>
-  <si>
-    <t>-0.85%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>-11.75%</t>
-  </si>
-  <si>
-    <t>91.25%</t>
-  </si>
-  <si>
-    <t>92.21%</t>
-  </si>
-  <si>
-    <t>-67.65%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>14.63%</t>
-  </si>
-  <si>
-    <t>-2.57%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>115.25%</t>
-  </si>
-  <si>
-    <t>-17.38%</t>
-  </si>
-  <si>
-    <t>-25.84%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>95.16%</t>
-  </si>
-  <si>
-    <t>39.51%</t>
-  </si>
-  <si>
-    <t>-23.34%</t>
-  </si>
-  <si>
-    <t>-37.43%</t>
-  </si>
-  <si>
-    <t>-19.92%</t>
-  </si>
-  <si>
-    <t>166.67%</t>
-  </si>
-  <si>
-    <t>-6.60%</t>
-  </si>
-  <si>
-    <t>13.12%</t>
-  </si>
-  <si>
-    <t>166.18%</t>
-  </si>
-  <si>
-    <t>-21.68%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>-46.93%</t>
-  </si>
-  <si>
-    <t>-25.46%</t>
-  </si>
-  <si>
-    <t>15.94%</t>
-  </si>
-  <si>
-    <t>76.40%</t>
-  </si>
-  <si>
-    <t>-45.10%</t>
-  </si>
-  <si>
-    <t>44.44%</t>
-  </si>
-  <si>
-    <t>130.77%</t>
-  </si>
-  <si>
-    <t>-3.95%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>-17.07%</t>
-  </si>
-  <si>
-    <t>-5.56%</t>
-  </si>
-  <si>
-    <t>111.11%</t>
-  </si>
-  <si>
-    <t>11.50%</t>
-  </si>
-  <si>
-    <t>59.74%</t>
-  </si>
-  <si>
-    <t>-34.59%</t>
-  </si>
-  <si>
-    <t>26.32%</t>
-  </si>
-  <si>
-    <t>62.16%</t>
-  </si>
-  <si>
-    <t>-52.38%</t>
-  </si>
-  <si>
-    <t>63.01%</t>
-  </si>
-  <si>
-    <t>-16.90%</t>
-  </si>
-  <si>
-    <t>88.71%</t>
-  </si>
-  <si>
-    <t>404.35%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>-46.54%</t>
-  </si>
-  <si>
-    <t>69.12%</t>
-  </si>
-  <si>
-    <t>74.24%</t>
-  </si>
-  <si>
-    <t>23.91%</t>
-  </si>
-  <si>
-    <t>54.05%</t>
-  </si>
-  <si>
-    <t>-30.67%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>38.75%</t>
-  </si>
-  <si>
-    <t>-26.49%</t>
-  </si>
-  <si>
-    <t>33.73%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>-41.08%</t>
-  </si>
-  <si>
-    <t>69.84%</t>
-  </si>
-  <si>
-    <t>44.59%</t>
-  </si>
-  <si>
-    <t>181.08%</t>
-  </si>
-  <si>
-    <t>23.17%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>-23.08%</t>
-  </si>
-  <si>
-    <t>-24.43%</t>
-  </si>
-  <si>
-    <t>-27.21%</t>
-  </si>
-  <si>
-    <t>49.23%</t>
-  </si>
-  <si>
-    <t>84.62%</t>
-  </si>
-  <si>
-    <t>102.13%</t>
-  </si>
-  <si>
-    <t>193.75%</t>
-  </si>
-  <si>
-    <t>-25.00%</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -995,21 +1053,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1292,19 +1646,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="4" max="4" width="12.9464285714286" customWidth="1"/>
+    <col min="5" max="5" width="15.7678571428571" customWidth="1"/>
+    <col min="6" max="6" width="16.6607142857143" customWidth="1"/>
+    <col min="7" max="7" width="19.9375" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="17.8482142857143" customWidth="1"/>
+    <col min="10" max="10" width="21.4196428571429" customWidth="1"/>
+    <col min="11" max="11" width="15.7678571428571" customWidth="1"/>
+    <col min="12" max="12" width="16.3571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,16 +1693,31 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2136</v>
@@ -1346,22 +1728,37 @@
       <c r="F2">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>207</v>
+      <c r="G2" s="2">
+        <v>0.0269</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1911.8236</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1782.9869</v>
+      </c>
+      <c r="K2" s="3">
+        <v>128.8367</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.0723</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1484</v>
@@ -1372,22 +1769,37 @@
       <c r="F3">
         <v>-141</v>
       </c>
-      <c r="G3" t="s">
-        <v>208</v>
+      <c r="G3" s="2">
+        <v>-0.0868</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1280.012</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1308.8882</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-28.8762</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-0.0221</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1122</v>
@@ -1398,22 +1810,37 @@
       <c r="F4">
         <v>149</v>
       </c>
-      <c r="G4" t="s">
-        <v>209</v>
+      <c r="G4" s="2">
+        <v>0.1531</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>632.7835</v>
+      </c>
+      <c r="J4" s="3">
+        <v>442.8718</v>
+      </c>
+      <c r="K4" s="3">
+        <v>189.9117</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.4288</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1083</v>
@@ -1424,22 +1851,37 @@
       <c r="F5">
         <v>-363</v>
       </c>
-      <c r="G5" t="s">
-        <v>210</v>
+      <c r="G5" s="2">
+        <v>-0.251</v>
       </c>
       <c r="H5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3">
+        <v>540.6511</v>
+      </c>
+      <c r="J5" s="3">
+        <v>787.7983</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-247.1472</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-0.3137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1043</v>
@@ -1450,22 +1892,37 @@
       <c r="F6">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
-        <v>211</v>
+      <c r="G6" s="2">
+        <v>0.0708</v>
       </c>
       <c r="H6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
+        <v>638.5408</v>
+      </c>
+      <c r="J6" s="3">
+        <v>627.2581</v>
+      </c>
+      <c r="K6" s="3">
+        <v>11.2827</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.018</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>950</v>
@@ -1476,22 +1933,37 @@
       <c r="F7">
         <v>-319</v>
       </c>
-      <c r="G7" t="s">
-        <v>212</v>
+      <c r="G7" s="2">
+        <v>-0.2514</v>
       </c>
       <c r="H7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3">
+        <v>471.9791</v>
+      </c>
+      <c r="J7" s="3">
+        <v>745.3498</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-273.3707</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-0.3668</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>948</v>
@@ -1502,22 +1974,37 @@
       <c r="F8">
         <v>-114</v>
       </c>
-      <c r="G8" t="s">
-        <v>213</v>
+      <c r="G8" s="2">
+        <v>-0.1073</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>652.4118</v>
+      </c>
+      <c r="J8" s="3">
+        <v>692.2593</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-39.8475</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-0.0576</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>838</v>
@@ -1528,22 +2015,37 @@
       <c r="F9">
         <v>191</v>
       </c>
-      <c r="G9" t="s">
-        <v>214</v>
+      <c r="G9" s="2">
+        <v>0.2952</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>341.7017</v>
+      </c>
+      <c r="J9" s="3">
+        <v>210.0389</v>
+      </c>
+      <c r="K9" s="3">
+        <v>131.6628</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.6268</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>778</v>
@@ -1554,22 +2056,37 @@
       <c r="F10">
         <v>291</v>
       </c>
-      <c r="G10" t="s">
-        <v>215</v>
+      <c r="G10" s="2">
+        <v>0.5975</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1255.1394</v>
+      </c>
+      <c r="J10" s="3">
+        <v>687.536</v>
+      </c>
+      <c r="K10" s="3">
+        <v>567.6034</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.8256</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>745</v>
@@ -1580,22 +2097,37 @@
       <c r="F11">
         <v>309</v>
       </c>
-      <c r="G11" t="s">
-        <v>216</v>
+      <c r="G11" s="2">
+        <v>0.7087</v>
       </c>
       <c r="H11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3">
+        <v>710.2739</v>
+      </c>
+      <c r="J11" s="3">
+        <v>402.0761</v>
+      </c>
+      <c r="K11" s="3">
+        <v>308.1978</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.7665</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>708</v>
@@ -1606,22 +2138,37 @@
       <c r="F12">
         <v>-235</v>
       </c>
-      <c r="G12" t="s">
-        <v>217</v>
+      <c r="G12" s="2">
+        <v>-0.2492</v>
       </c>
       <c r="H12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3">
+        <v>330.2032</v>
+      </c>
+      <c r="J12" s="3">
+        <v>455.4114</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-125.2082</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-0.2749</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>702</v>
@@ -1632,22 +2179,37 @@
       <c r="F13">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
-        <v>218</v>
+      <c r="G13" s="2">
+        <v>0.0446</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3">
+        <v>531.0265</v>
+      </c>
+      <c r="J13" s="3">
+        <v>526.9843</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.0422</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.0077</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>660</v>
@@ -1658,22 +2220,37 @@
       <c r="F14">
         <v>105</v>
       </c>
-      <c r="G14" t="s">
-        <v>219</v>
+      <c r="G14" s="2">
+        <v>0.1892</v>
       </c>
       <c r="H14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3">
+        <v>487.018</v>
+      </c>
+      <c r="J14" s="3">
+        <v>430.7716</v>
+      </c>
+      <c r="K14" s="3">
+        <v>56.2464</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.1306</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>656</v>
@@ -1684,22 +2261,37 @@
       <c r="F15">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
-        <v>220</v>
+      <c r="G15" s="2">
+        <v>0.1549</v>
       </c>
       <c r="H15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
+        <v>390.5968</v>
+      </c>
+      <c r="J15" s="3">
+        <v>372.6229</v>
+      </c>
+      <c r="K15" s="3">
+        <v>17.9739</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.0482</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>640</v>
@@ -1710,22 +2302,37 @@
       <c r="F16">
         <v>96</v>
       </c>
-      <c r="G16" t="s">
-        <v>221</v>
+      <c r="G16" s="2">
+        <v>0.1765</v>
       </c>
       <c r="H16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>167.5688</v>
+      </c>
+      <c r="J16" s="3">
+        <v>163.4814</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.0874</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>629</v>
@@ -1736,22 +2343,37 @@
       <c r="F17">
         <v>-187</v>
       </c>
-      <c r="G17" t="s">
-        <v>222</v>
+      <c r="G17" s="2">
+        <v>-0.2292</v>
       </c>
       <c r="H17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3">
+        <v>476.472</v>
+      </c>
+      <c r="J17" s="3">
+        <v>566.7355</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-90.2635</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-0.1593</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>586</v>
@@ -1762,22 +2384,37 @@
       <c r="F18">
         <v>-115</v>
       </c>
-      <c r="G18" t="s">
-        <v>223</v>
+      <c r="G18" s="2">
+        <v>-0.1641</v>
       </c>
       <c r="H18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>345.651</v>
+      </c>
+      <c r="J18" s="3">
+        <v>396.671</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-51.02</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-0.1286</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>571</v>
@@ -1788,22 +2425,37 @@
       <c r="F19">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
-        <v>224</v>
+      <c r="G19" s="2">
+        <v>0.2605</v>
       </c>
       <c r="H19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>246.9847</v>
+      </c>
+      <c r="J19" s="3">
+        <v>253.7518</v>
+      </c>
+      <c r="K19" s="3">
+        <v>-6.7671</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-0.0267</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>535</v>
@@ -1814,22 +2466,37 @@
       <c r="F20">
         <v>-91</v>
       </c>
-      <c r="G20" t="s">
-        <v>225</v>
+      <c r="G20" s="2">
+        <v>-0.1454</v>
       </c>
       <c r="H20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3">
+        <v>603.7544</v>
+      </c>
+      <c r="J20" s="3">
+        <v>577.9181</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25.8363</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.0447</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>524</v>
@@ -1840,22 +2507,37 @@
       <c r="F21">
         <v>98</v>
       </c>
-      <c r="G21" t="s">
-        <v>226</v>
+      <c r="G21" s="2">
+        <v>0.23</v>
       </c>
       <c r="H21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3">
+        <v>227.6065</v>
+      </c>
+      <c r="J21" s="3">
+        <v>110.9496</v>
+      </c>
+      <c r="K21" s="3">
+        <v>116.6569</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.0514</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>494</v>
@@ -1866,22 +2548,37 @@
       <c r="F22">
         <v>-103</v>
       </c>
-      <c r="G22" t="s">
-        <v>227</v>
+      <c r="G22" s="2">
+        <v>-0.1725</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>277.5913</v>
+      </c>
+      <c r="J22" s="3">
+        <v>382.0809</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-104.4896</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-0.2735</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>454</v>
@@ -1892,22 +2589,37 @@
       <c r="F23">
         <v>116</v>
       </c>
-      <c r="G23" t="s">
-        <v>228</v>
+      <c r="G23" s="2">
+        <v>0.3432</v>
       </c>
       <c r="H23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3">
+        <v>234.9718</v>
+      </c>
+      <c r="J23" s="3">
+        <v>189.3365</v>
+      </c>
+      <c r="K23" s="3">
+        <v>45.6353</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.241</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>437</v>
@@ -1918,22 +2630,37 @@
       <c r="F24">
         <v>-91</v>
       </c>
-      <c r="G24" t="s">
-        <v>229</v>
+      <c r="G24" s="2">
+        <v>-0.1723</v>
       </c>
       <c r="H24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
+        <v>280.7522</v>
+      </c>
+      <c r="J24" s="3">
+        <v>336.9628</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-56.2106</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-0.1668</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>429</v>
@@ -1944,22 +2671,37 @@
       <c r="F25">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
-        <v>230</v>
+      <c r="G25" s="2">
+        <v>0.1753</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3">
+        <v>252.3764</v>
+      </c>
+      <c r="J25" s="3">
+        <v>203.4052</v>
+      </c>
+      <c r="K25" s="3">
+        <v>48.9712</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.2408</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>428</v>
@@ -1970,22 +2712,37 @@
       <c r="F26">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
-        <v>231</v>
+      <c r="G26" s="2">
+        <v>0.4508</v>
       </c>
       <c r="H26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3">
+        <v>302.0034</v>
+      </c>
+      <c r="J26" s="3">
+        <v>183.8857</v>
+      </c>
+      <c r="K26" s="3">
+        <v>118.1177</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.6423</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>422</v>
@@ -1996,22 +2753,37 @@
       <c r="F27">
         <v>80</v>
       </c>
-      <c r="G27" t="s">
-        <v>232</v>
+      <c r="G27" s="2">
+        <v>0.2339</v>
       </c>
       <c r="H27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3">
+        <v>197.2658</v>
+      </c>
+      <c r="J27" s="3">
+        <v>171.7706</v>
+      </c>
+      <c r="K27" s="3">
+        <v>25.4952</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.1484</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>359</v>
@@ -2022,22 +2794,37 @@
       <c r="F28">
         <v>-191</v>
       </c>
-      <c r="G28" t="s">
-        <v>233</v>
+      <c r="G28" s="2">
+        <v>-0.3473</v>
       </c>
       <c r="H28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>249.1717</v>
+      </c>
+      <c r="J28" s="3">
+        <v>325.9297</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-76.758</v>
+      </c>
+      <c r="L28" s="2">
+        <v>-0.2355</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>349</v>
@@ -2048,22 +2835,37 @@
       <c r="F29">
         <v>-3</v>
       </c>
-      <c r="G29" t="s">
-        <v>234</v>
+      <c r="G29" s="2">
+        <v>-0.0085</v>
       </c>
       <c r="H29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3">
+        <v>389.4107</v>
+      </c>
+      <c r="J29" s="3">
+        <v>395.6472</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-6.2365</v>
+      </c>
+      <c r="L29" s="2">
+        <v>-0.0158</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>324</v>
@@ -2074,22 +2876,37 @@
       <c r="F30">
         <v>63</v>
       </c>
-      <c r="G30" t="s">
-        <v>235</v>
+      <c r="G30" s="2">
+        <v>0.2414</v>
       </c>
       <c r="H30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3">
+        <v>506.7793</v>
+      </c>
+      <c r="J30" s="3">
+        <v>394.8505</v>
+      </c>
+      <c r="K30" s="3">
+        <v>111.9288</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.2835</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>308</v>
@@ -2100,22 +2917,37 @@
       <c r="F31">
         <v>-41</v>
       </c>
-      <c r="G31" t="s">
-        <v>236</v>
+      <c r="G31" s="2">
+        <v>-0.1175</v>
       </c>
       <c r="H31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I31" s="3">
+        <v>207.826</v>
+      </c>
+      <c r="J31" s="3">
+        <v>240.1973</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-32.3713</v>
+      </c>
+      <c r="L31" s="2">
+        <v>-0.1348</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>306</v>
@@ -2126,22 +2958,37 @@
       <c r="F32">
         <v>146</v>
       </c>
-      <c r="G32" t="s">
-        <v>237</v>
+      <c r="G32" s="2">
+        <v>0.9125</v>
       </c>
       <c r="H32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3">
+        <v>226.9414</v>
+      </c>
+      <c r="J32" s="3">
+        <v>165.613</v>
+      </c>
+      <c r="K32" s="3">
+        <v>61.3284</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.3703</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <v>296</v>
@@ -2152,22 +2999,37 @@
       <c r="F33">
         <v>142</v>
       </c>
-      <c r="G33" t="s">
-        <v>238</v>
+      <c r="G33" s="2">
+        <v>0.9221</v>
       </c>
       <c r="H33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" s="3">
+        <v>86.0835</v>
+      </c>
+      <c r="J33" s="3">
+        <v>27.8403</v>
+      </c>
+      <c r="K33" s="3">
+        <v>58.2432</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2.092</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>295</v>
@@ -2178,22 +3040,37 @@
       <c r="F34">
         <v>-617</v>
       </c>
-      <c r="G34" t="s">
-        <v>239</v>
+      <c r="G34" s="2">
+        <v>-0.6765</v>
       </c>
       <c r="H34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I34" s="3">
+        <v>203.1863</v>
+      </c>
+      <c r="J34" s="3">
+        <v>494.9448</v>
+      </c>
+      <c r="K34" s="3">
+        <v>-291.7585</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-0.5895</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>293</v>
@@ -2204,22 +3081,37 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
-        <v>240</v>
+      <c r="G35" s="2">
+        <v>0.0103</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100.7694</v>
+      </c>
+      <c r="J35" s="3">
+        <v>92.1037</v>
+      </c>
+      <c r="K35" s="3">
+        <v>8.6657</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.0941</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>282</v>
@@ -2230,22 +3122,37 @@
       <c r="F36">
         <v>36</v>
       </c>
-      <c r="G36" t="s">
-        <v>241</v>
+      <c r="G36" s="2">
+        <v>0.1463</v>
       </c>
       <c r="H36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3">
+        <v>154.63</v>
+      </c>
+      <c r="J36" s="3">
+        <v>178.3304</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-23.7004</v>
+      </c>
+      <c r="L36" s="2">
+        <v>-0.1329</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <v>265</v>
@@ -2256,22 +3163,37 @@
       <c r="F37">
         <v>-7</v>
       </c>
-      <c r="G37" t="s">
-        <v>242</v>
+      <c r="G37" s="2">
+        <v>-0.0257</v>
       </c>
       <c r="H37" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I37" s="3">
+        <v>231.7642</v>
+      </c>
+      <c r="J37" s="3">
+        <v>228.2404</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.5238</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.0154</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <v>263</v>
@@ -2282,22 +3204,37 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
-        <v>243</v>
+      <c r="G38" s="2">
+        <v>0.0154</v>
       </c>
       <c r="H38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3">
+        <v>190.4559</v>
+      </c>
+      <c r="J38" s="3">
+        <v>244.3846</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-53.9287</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-0.2207</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>254</v>
@@ -2308,22 +3245,37 @@
       <c r="F39">
         <v>136</v>
       </c>
-      <c r="G39" t="s">
-        <v>244</v>
+      <c r="G39" s="2">
+        <v>1.1525</v>
       </c>
       <c r="H39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3">
+        <v>94.1595</v>
+      </c>
+      <c r="J39" s="3">
+        <v>25.2349</v>
+      </c>
+      <c r="K39" s="3">
+        <v>68.9246</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2.7313</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>252</v>
@@ -2334,22 +3286,37 @@
       <c r="F40">
         <v>-53</v>
       </c>
-      <c r="G40" t="s">
-        <v>245</v>
+      <c r="G40" s="2">
+        <v>-0.1738</v>
       </c>
       <c r="H40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I40" s="3">
+        <v>220.2416</v>
+      </c>
+      <c r="J40" s="3">
+        <v>255.6549</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-35.4133</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-0.1385</v>
+      </c>
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <v>244</v>
@@ -2360,22 +3327,37 @@
       <c r="F41">
         <v>-85</v>
       </c>
-      <c r="G41" t="s">
-        <v>246</v>
+      <c r="G41" s="2">
+        <v>-0.2584</v>
       </c>
       <c r="H41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I41" s="3">
+        <v>234.2945</v>
+      </c>
+      <c r="J41" s="3">
+        <v>322.015</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-87.7205</v>
+      </c>
+      <c r="L41" s="2">
+        <v>-0.2724</v>
+      </c>
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>242</v>
@@ -2386,22 +3368,37 @@
       <c r="F42">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>247</v>
+      <c r="G42" s="2">
+        <v>0.0476</v>
       </c>
       <c r="H42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3">
+        <v>175.7882</v>
+      </c>
+      <c r="J42" s="3">
+        <v>178.3273</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-2.5391</v>
+      </c>
+      <c r="L42" s="2">
+        <v>-0.0142</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D43">
         <v>242</v>
@@ -2412,22 +3409,37 @@
       <c r="F43">
         <v>118</v>
       </c>
-      <c r="G43" t="s">
-        <v>248</v>
+      <c r="G43" s="2">
+        <v>0.9516</v>
       </c>
       <c r="H43" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" s="3">
+        <v>188.3968</v>
+      </c>
+      <c r="J43" s="3">
+        <v>105.5045</v>
+      </c>
+      <c r="K43" s="3">
+        <v>82.8923</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.7857</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <v>226</v>
@@ -2438,22 +3450,37 @@
       <c r="F44">
         <v>64</v>
       </c>
-      <c r="G44" t="s">
-        <v>249</v>
+      <c r="G44" s="2">
+        <v>0.3951</v>
       </c>
       <c r="H44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" s="3">
+        <v>152.0916</v>
+      </c>
+      <c r="J44" s="3">
+        <v>125.7569</v>
+      </c>
+      <c r="K44" s="3">
+        <v>26.3347</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.2094</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D45">
         <v>220</v>
@@ -2464,22 +3491,37 @@
       <c r="F45">
         <v>-67</v>
       </c>
-      <c r="G45" t="s">
-        <v>250</v>
+      <c r="G45" s="2">
+        <v>-0.2334</v>
       </c>
       <c r="H45" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3">
+        <v>214.4214</v>
+      </c>
+      <c r="J45" s="3">
+        <v>366.1389</v>
+      </c>
+      <c r="K45" s="3">
+        <v>-151.7175</v>
+      </c>
+      <c r="L45" s="2">
+        <v>-0.4144</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>214</v>
@@ -2490,22 +3532,37 @@
       <c r="F46">
         <v>-128</v>
       </c>
-      <c r="G46" t="s">
-        <v>251</v>
+      <c r="G46" s="2">
+        <v>-0.3743</v>
       </c>
       <c r="H46" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I46" s="3">
+        <v>69.6022</v>
+      </c>
+      <c r="J46" s="3">
+        <v>102.365</v>
+      </c>
+      <c r="K46" s="3">
+        <v>-32.7628</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-0.3201</v>
+      </c>
+      <c r="M46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D47">
         <v>189</v>
@@ -2516,22 +3573,37 @@
       <c r="F47">
         <v>-47</v>
       </c>
-      <c r="G47" t="s">
-        <v>252</v>
+      <c r="G47" s="2">
+        <v>-0.1992</v>
       </c>
       <c r="H47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I47" s="3">
+        <v>88.1434</v>
+      </c>
+      <c r="J47" s="3">
+        <v>121.4886</v>
+      </c>
+      <c r="K47" s="3">
+        <v>-33.3452</v>
+      </c>
+      <c r="L47" s="2">
+        <v>-0.2745</v>
+      </c>
+      <c r="M47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D48">
         <v>184</v>
@@ -2542,22 +3614,37 @@
       <c r="F48">
         <v>115</v>
       </c>
-      <c r="G48" t="s">
-        <v>253</v>
+      <c r="G48" s="2">
+        <v>1.6667</v>
       </c>
       <c r="H48" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" s="3">
+        <v>38.5451</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10.1644</v>
+      </c>
+      <c r="K48" s="3">
+        <v>28.3807</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2.7922</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>184</v>
@@ -2568,22 +3655,37 @@
       <c r="F49">
         <v>-13</v>
       </c>
-      <c r="G49" t="s">
-        <v>254</v>
+      <c r="G49" s="2">
+        <v>-0.066</v>
       </c>
       <c r="H49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I49" s="3">
+        <v>58.8342</v>
+      </c>
+      <c r="J49" s="3">
+        <v>47.946</v>
+      </c>
+      <c r="K49" s="3">
+        <v>10.8882</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.2271</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>181</v>
@@ -2594,22 +3696,37 @@
       <c r="F50">
         <v>21</v>
       </c>
-      <c r="G50" t="s">
-        <v>255</v>
+      <c r="G50" s="2">
+        <v>0.1312</v>
       </c>
       <c r="H50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" s="3">
+        <v>77.7026</v>
+      </c>
+      <c r="J50" s="3">
+        <v>95.8164</v>
+      </c>
+      <c r="K50" s="3">
+        <v>-18.1138</v>
+      </c>
+      <c r="L50" s="2">
+        <v>-0.189</v>
+      </c>
+      <c r="M50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D51">
         <v>181</v>
@@ -2620,22 +3737,37 @@
       <c r="F51">
         <v>113</v>
       </c>
-      <c r="G51" t="s">
-        <v>256</v>
+      <c r="G51" s="2">
+        <v>1.6618</v>
       </c>
       <c r="H51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" s="3">
+        <v>112.6732</v>
+      </c>
+      <c r="J51" s="3">
+        <v>55.0585</v>
+      </c>
+      <c r="K51" s="3">
+        <v>57.6147</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1.0464</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D52">
         <v>177</v>
@@ -2646,22 +3778,37 @@
       <c r="F52">
         <v>-49</v>
       </c>
-      <c r="G52" t="s">
-        <v>257</v>
+      <c r="G52" s="2">
+        <v>-0.2168</v>
       </c>
       <c r="H52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I52" s="3">
+        <v>72.0758</v>
+      </c>
+      <c r="J52" s="3">
+        <v>114.6457</v>
+      </c>
+      <c r="K52" s="3">
+        <v>-42.5699</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-0.3713</v>
+      </c>
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>175</v>
@@ -2672,22 +3819,37 @@
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53" t="s">
-        <v>258</v>
+      <c r="G53" s="2">
+        <v>0.0174</v>
       </c>
       <c r="H53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" s="3">
+        <v>95.6529</v>
+      </c>
+      <c r="J53" s="3">
+        <v>90.8893</v>
+      </c>
+      <c r="K53" s="3">
+        <v>4.7636</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.0524</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D54">
         <v>164</v>
@@ -2698,22 +3860,37 @@
       <c r="F54">
         <v>-145</v>
       </c>
-      <c r="G54" t="s">
-        <v>259</v>
+      <c r="G54" s="2">
+        <v>-0.4693</v>
       </c>
       <c r="H54" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I54" s="3">
+        <v>92.8393</v>
+      </c>
+      <c r="J54" s="3">
+        <v>193.8657</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-101.0264</v>
+      </c>
+      <c r="L54" s="2">
+        <v>-0.5211</v>
+      </c>
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D55">
         <v>161</v>
@@ -2724,22 +3901,37 @@
       <c r="F55">
         <v>-55</v>
       </c>
-      <c r="G55" t="s">
-        <v>260</v>
+      <c r="G55" s="2">
+        <v>-0.2546</v>
       </c>
       <c r="H55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I55" s="3">
+        <v>128.6189</v>
+      </c>
+      <c r="J55" s="3">
+        <v>127.3351</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1.2838</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.0101</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D56">
         <v>160</v>
@@ -2750,22 +3942,37 @@
       <c r="F56">
         <v>22</v>
       </c>
-      <c r="G56" t="s">
-        <v>261</v>
+      <c r="G56" s="2">
+        <v>0.1594</v>
       </c>
       <c r="H56" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" s="3">
+        <v>57.0927</v>
+      </c>
+      <c r="J56" s="3">
+        <v>54.674</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2.4187</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.0442</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="D57">
         <v>157</v>
@@ -2776,22 +3983,37 @@
       <c r="F57">
         <v>68</v>
       </c>
-      <c r="G57" t="s">
-        <v>262</v>
+      <c r="G57" s="2">
+        <v>0.764</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" s="3">
+        <v>156.1812</v>
+      </c>
+      <c r="J57" s="3">
+        <v>120.3868</v>
+      </c>
+      <c r="K57" s="3">
+        <v>35.7944</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.2973</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="D58">
         <v>157</v>
@@ -2802,22 +4024,37 @@
       <c r="F58">
         <v>-129</v>
       </c>
-      <c r="G58" t="s">
-        <v>263</v>
+      <c r="G58" s="2">
+        <v>-0.451</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I58" s="3">
+        <v>159.6668</v>
+      </c>
+      <c r="J58" s="3">
+        <v>210.8741</v>
+      </c>
+      <c r="K58" s="3">
+        <v>-51.2073</v>
+      </c>
+      <c r="L58" s="2">
+        <v>-0.2428</v>
+      </c>
+      <c r="M58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D59">
         <v>156</v>
@@ -2828,22 +4065,37 @@
       <c r="F59">
         <v>48</v>
       </c>
-      <c r="G59" t="s">
-        <v>264</v>
+      <c r="G59" s="2">
+        <v>0.4444</v>
       </c>
       <c r="H59" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" s="3">
+        <v>83.3605</v>
+      </c>
+      <c r="J59" s="3">
+        <v>54.8778</v>
+      </c>
+      <c r="K59" s="3">
+        <v>28.4827</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.519</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D60">
         <v>150</v>
@@ -2854,22 +4106,37 @@
       <c r="F60">
         <v>85</v>
       </c>
-      <c r="G60" t="s">
-        <v>265</v>
+      <c r="G60" s="2">
+        <v>1.3077</v>
       </c>
       <c r="H60" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" s="3">
+        <v>60.6805</v>
+      </c>
+      <c r="J60" s="3">
+        <v>15.6379</v>
+      </c>
+      <c r="K60" s="3">
+        <v>45.0426</v>
+      </c>
+      <c r="L60" s="2">
+        <v>2.8803</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D61">
         <v>146</v>
@@ -2880,22 +4147,37 @@
       <c r="F61">
         <v>-6</v>
       </c>
-      <c r="G61" t="s">
-        <v>266</v>
+      <c r="G61" s="2">
+        <v>-0.0395</v>
       </c>
       <c r="H61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I61" s="3">
+        <v>122.6771</v>
+      </c>
+      <c r="J61" s="3">
+        <v>139.2962</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-16.6191</v>
+      </c>
+      <c r="L61" s="2">
+        <v>-0.1193</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D62">
         <v>140</v>
@@ -2906,22 +4188,37 @@
       <c r="F62">
         <v>14</v>
       </c>
-      <c r="G62" t="s">
-        <v>267</v>
+      <c r="G62" s="2">
+        <v>0.1111</v>
       </c>
       <c r="H62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" s="3">
+        <v>145.6277</v>
+      </c>
+      <c r="J62" s="3">
+        <v>122.9634</v>
+      </c>
+      <c r="K62" s="3">
+        <v>22.6643</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.1843</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D63">
         <v>136</v>
@@ -2932,22 +4229,37 @@
       <c r="F63">
         <v>-28</v>
       </c>
-      <c r="G63" t="s">
-        <v>268</v>
+      <c r="G63" s="2">
+        <v>-0.1707</v>
       </c>
       <c r="H63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I63" s="3">
+        <v>133.3261</v>
+      </c>
+      <c r="J63" s="3">
+        <v>174.0855</v>
+      </c>
+      <c r="K63" s="3">
+        <v>-40.7594</v>
+      </c>
+      <c r="L63" s="2">
+        <v>-0.2341</v>
+      </c>
+      <c r="M63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D64">
         <v>136</v>
@@ -2958,22 +4270,37 @@
       <c r="F64">
         <v>-8</v>
       </c>
-      <c r="G64" t="s">
-        <v>269</v>
+      <c r="G64" s="2">
+        <v>-0.0556</v>
       </c>
       <c r="H64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I64" s="3">
+        <v>106.415</v>
+      </c>
+      <c r="J64" s="3">
+        <v>119.5893</v>
+      </c>
+      <c r="K64" s="3">
+        <v>-13.1743</v>
+      </c>
+      <c r="L64" s="2">
+        <v>-0.1102</v>
+      </c>
+      <c r="M64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>133</v>
@@ -2984,22 +4311,37 @@
       <c r="F65">
         <v>70</v>
       </c>
-      <c r="G65" t="s">
-        <v>270</v>
+      <c r="G65" s="2">
+        <v>1.1111</v>
       </c>
       <c r="H65" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" s="3">
+        <v>95.1031</v>
+      </c>
+      <c r="J65" s="3">
+        <v>43.9823</v>
+      </c>
+      <c r="K65" s="3">
+        <v>51.1208</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1.1623</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D66">
         <v>126</v>
@@ -3010,22 +4352,37 @@
       <c r="F66">
         <v>13</v>
       </c>
-      <c r="G66" t="s">
-        <v>271</v>
+      <c r="G66" s="2">
+        <v>0.115</v>
       </c>
       <c r="H66" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" s="3">
+        <v>119.7875</v>
+      </c>
+      <c r="J66" s="3">
+        <v>109.3376</v>
+      </c>
+      <c r="K66" s="3">
+        <v>10.4499</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.0956</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>123</v>
@@ -3036,22 +4393,37 @@
       <c r="F67">
         <v>46</v>
       </c>
-      <c r="G67" t="s">
-        <v>272</v>
+      <c r="G67" s="2">
+        <v>0.5974</v>
       </c>
       <c r="H67" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" s="3">
+        <v>64.2091</v>
+      </c>
+      <c r="J67" s="3">
+        <v>28.3042</v>
+      </c>
+      <c r="K67" s="3">
+        <v>35.9049</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1.2685</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>121</v>
@@ -3062,22 +4434,37 @@
       <c r="F68">
         <v>-64</v>
       </c>
-      <c r="G68" t="s">
-        <v>273</v>
+      <c r="G68" s="2">
+        <v>-0.3459</v>
       </c>
       <c r="H68" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I68" s="3">
+        <v>69.4431</v>
+      </c>
+      <c r="J68" s="3">
+        <v>132.2643</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-62.8212</v>
+      </c>
+      <c r="L68" s="2">
+        <v>-0.475</v>
+      </c>
+      <c r="M68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -3088,22 +4475,37 @@
       <c r="F69">
         <v>25</v>
       </c>
-      <c r="G69" t="s">
-        <v>274</v>
+      <c r="G69" s="2">
+        <v>0.2632</v>
       </c>
       <c r="H69" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" s="3">
+        <v>96.9666</v>
+      </c>
+      <c r="J69" s="3">
+        <v>88.2113</v>
+      </c>
+      <c r="K69" s="3">
+        <v>8.7553</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.0993</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D70">
         <v>120</v>
@@ -3114,22 +4516,37 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="G70" t="s">
-        <v>275</v>
+      <c r="G70" s="2">
+        <v>0.6216</v>
       </c>
       <c r="H70" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" s="3">
+        <v>30.05</v>
+      </c>
+      <c r="J70" s="3">
+        <v>29.002</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1.048</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.0361</v>
+      </c>
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D71">
         <v>120</v>
@@ -3140,22 +4557,37 @@
       <c r="F71">
         <v>-132</v>
       </c>
-      <c r="G71" t="s">
-        <v>276</v>
+      <c r="G71" s="2">
+        <v>-0.5238</v>
       </c>
       <c r="H71" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I71" s="3">
+        <v>204.5614</v>
+      </c>
+      <c r="J71" s="3">
+        <v>319.6634</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-115.102</v>
+      </c>
+      <c r="L71" s="2">
+        <v>-0.3601</v>
+      </c>
+      <c r="M71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D72">
         <v>119</v>
@@ -3166,22 +4598,37 @@
       <c r="F72">
         <v>46</v>
       </c>
-      <c r="G72" t="s">
-        <v>277</v>
+      <c r="G72" s="2">
+        <v>0.6301</v>
       </c>
       <c r="H72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" s="3">
+        <v>27.405</v>
+      </c>
+      <c r="J72" s="3">
+        <v>15.1812</v>
+      </c>
+      <c r="K72" s="3">
+        <v>12.2238</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.8052</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>118</v>
@@ -3192,22 +4639,37 @@
       <c r="F73">
         <v>-24</v>
       </c>
-      <c r="G73" t="s">
-        <v>278</v>
+      <c r="G73" s="2">
+        <v>-0.169</v>
       </c>
       <c r="H73" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I73" s="3">
+        <v>31.7183</v>
+      </c>
+      <c r="J73" s="3">
+        <v>39.3635</v>
+      </c>
+      <c r="K73" s="3">
+        <v>-7.6452</v>
+      </c>
+      <c r="L73" s="2">
+        <v>-0.1942</v>
+      </c>
+      <c r="M73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>117</v>
@@ -3218,22 +4680,37 @@
       <c r="F74">
         <v>55</v>
       </c>
-      <c r="G74" t="s">
-        <v>279</v>
+      <c r="G74" s="2">
+        <v>0.8871</v>
       </c>
       <c r="H74" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" s="3">
+        <v>66.5347</v>
+      </c>
+      <c r="J74" s="3">
+        <v>57.6457</v>
+      </c>
+      <c r="K74" s="3">
+        <v>8.889</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.1542</v>
+      </c>
+      <c r="M74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D75">
         <v>116</v>
@@ -3244,22 +4721,37 @@
       <c r="F75">
         <v>93</v>
       </c>
-      <c r="G75" t="s">
-        <v>280</v>
+      <c r="G75" s="2">
+        <v>4.0435</v>
       </c>
       <c r="H75" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" s="3">
+        <v>125.9795</v>
+      </c>
+      <c r="J75" s="3">
+        <v>8.6464</v>
+      </c>
+      <c r="K75" s="3">
+        <v>117.3331</v>
+      </c>
+      <c r="L75" s="2">
+        <v>13.5702</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D76">
         <v>116</v>
@@ -3270,22 +4762,37 @@
       <c r="F76">
         <v>22</v>
       </c>
-      <c r="G76" t="s">
-        <v>281</v>
+      <c r="G76" s="2">
+        <v>0.234</v>
       </c>
       <c r="H76" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" s="3">
+        <v>43.4107</v>
+      </c>
+      <c r="J76" s="3">
+        <v>40.9159</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2.4948</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.061</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D77">
         <v>116</v>
@@ -3296,22 +4803,37 @@
       <c r="F77">
         <v>-101</v>
       </c>
-      <c r="G77" t="s">
-        <v>282</v>
+      <c r="G77" s="2">
+        <v>-0.4654</v>
       </c>
       <c r="H77" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I77" s="3">
+        <v>71.3601</v>
+      </c>
+      <c r="J77" s="3">
+        <v>123.6822</v>
+      </c>
+      <c r="K77" s="3">
+        <v>-52.3221</v>
+      </c>
+      <c r="L77" s="2">
+        <v>-0.423</v>
+      </c>
+      <c r="M77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D78">
         <v>115</v>
@@ -3322,22 +4844,37 @@
       <c r="F78">
         <v>47</v>
       </c>
-      <c r="G78" t="s">
-        <v>283</v>
+      <c r="G78" s="2">
+        <v>0.6912</v>
       </c>
       <c r="H78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3">
+        <v>97.9239</v>
+      </c>
+      <c r="J78" s="3">
+        <v>38.4825</v>
+      </c>
+      <c r="K78" s="3">
+        <v>59.4414</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1.5446</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D79">
         <v>115</v>
@@ -3348,22 +4885,37 @@
       <c r="F79">
         <v>49</v>
       </c>
-      <c r="G79" t="s">
-        <v>284</v>
+      <c r="G79" s="2">
+        <v>0.7424</v>
       </c>
       <c r="H79" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" s="3">
+        <v>80.832</v>
+      </c>
+      <c r="J79" s="3">
+        <v>67.7853</v>
+      </c>
+      <c r="K79" s="3">
+        <v>13.0467</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.1925</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D80">
         <v>114</v>
@@ -3374,22 +4926,37 @@
       <c r="F80">
         <v>22</v>
       </c>
-      <c r="G80" t="s">
-        <v>285</v>
+      <c r="G80" s="2">
+        <v>0.2391</v>
       </c>
       <c r="H80" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3">
+        <v>35.5809</v>
+      </c>
+      <c r="J80" s="3">
+        <v>40.6346</v>
+      </c>
+      <c r="K80" s="3">
+        <v>-5.0537</v>
+      </c>
+      <c r="L80" s="2">
+        <v>-0.1244</v>
+      </c>
+      <c r="M80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D81">
         <v>114</v>
@@ -3400,48 +4967,78 @@
       <c r="F81">
         <v>40</v>
       </c>
-      <c r="G81" t="s">
-        <v>286</v>
+      <c r="G81" s="2">
+        <v>0.5405</v>
       </c>
       <c r="H81" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" s="3">
+        <v>48.3447</v>
+      </c>
+      <c r="J81" s="3">
+        <v>18.3686</v>
+      </c>
+      <c r="K81" s="3">
+        <v>29.9761</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1.6319</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D82">
         <v>113</v>
       </c>
       <c r="E82">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F82">
-        <v>-50</v>
-      </c>
-      <c r="G82" t="s">
-        <v>287</v>
+        <v>-51</v>
+      </c>
+      <c r="G82" s="2">
+        <v>-0.311</v>
       </c>
       <c r="H82" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I82" s="3">
+        <v>87.0109</v>
+      </c>
+      <c r="J82" s="3">
+        <v>98.5989</v>
+      </c>
+      <c r="K82" s="3">
+        <v>-11.588</v>
+      </c>
+      <c r="L82" s="2">
+        <v>-0.1175</v>
+      </c>
+      <c r="M82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D83">
         <v>112</v>
@@ -3452,22 +5049,37 @@
       <c r="F83">
         <v>28</v>
       </c>
-      <c r="G83" t="s">
-        <v>288</v>
+      <c r="G83" s="2">
+        <v>0.3333</v>
       </c>
       <c r="H83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" s="3">
+        <v>101.233</v>
+      </c>
+      <c r="J83" s="3">
+        <v>65.9934</v>
+      </c>
+      <c r="K83" s="3">
+        <v>35.2396</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.534</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D84">
         <v>111</v>
@@ -3478,22 +5090,37 @@
       <c r="F84">
         <v>31</v>
       </c>
-      <c r="G84" t="s">
-        <v>289</v>
+      <c r="G84" s="2">
+        <v>0.3875</v>
       </c>
       <c r="H84" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3">
+        <v>71.4729</v>
+      </c>
+      <c r="J84" s="3">
+        <v>55.2628</v>
+      </c>
+      <c r="K84" s="3">
+        <v>16.2101</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.2933</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D85">
         <v>111</v>
@@ -3504,22 +5131,37 @@
       <c r="F85">
         <v>-40</v>
       </c>
-      <c r="G85" t="s">
-        <v>290</v>
+      <c r="G85" s="2">
+        <v>-0.2649</v>
       </c>
       <c r="H85" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I85" s="3">
+        <v>59.2597</v>
+      </c>
+      <c r="J85" s="3">
+        <v>80.8166</v>
+      </c>
+      <c r="K85" s="3">
+        <v>-21.5569</v>
+      </c>
+      <c r="L85" s="2">
+        <v>-0.2667</v>
+      </c>
+      <c r="M85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D86">
         <v>111</v>
@@ -3530,22 +5172,37 @@
       <c r="F86">
         <v>28</v>
       </c>
-      <c r="G86" t="s">
-        <v>291</v>
+      <c r="G86" s="2">
+        <v>0.3373</v>
       </c>
       <c r="H86" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3">
+        <v>209.2238</v>
+      </c>
+      <c r="J86" s="3">
+        <v>131.3612</v>
+      </c>
+      <c r="K86" s="3">
+        <v>77.8626</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0.5927</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D87">
         <v>111</v>
@@ -3556,22 +5213,37 @@
       <c r="F87">
         <v>37</v>
       </c>
-      <c r="G87" t="s">
-        <v>292</v>
+      <c r="G87" s="2">
+        <v>0.5</v>
       </c>
       <c r="H87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" s="3">
+        <v>12.562</v>
+      </c>
+      <c r="J87" s="3">
+        <v>7.3005</v>
+      </c>
+      <c r="K87" s="3">
+        <v>5.2615</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0.7207</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D88">
         <v>109</v>
@@ -3582,22 +5254,37 @@
       <c r="F88">
         <v>-76</v>
       </c>
-      <c r="G88" t="s">
-        <v>293</v>
+      <c r="G88" s="2">
+        <v>-0.4108</v>
       </c>
       <c r="H88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3">
+        <v>90.9031</v>
+      </c>
+      <c r="J88" s="3">
+        <v>117.3542</v>
+      </c>
+      <c r="K88" s="3">
+        <v>-26.4511</v>
+      </c>
+      <c r="L88" s="2">
+        <v>-0.2254</v>
+      </c>
+      <c r="M88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D89">
         <v>107</v>
@@ -3608,22 +5295,37 @@
       <c r="F89">
         <v>44</v>
       </c>
-      <c r="G89" t="s">
-        <v>294</v>
+      <c r="G89" s="2">
+        <v>0.6984</v>
       </c>
       <c r="H89" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" s="3">
+        <v>62.5355</v>
+      </c>
+      <c r="J89" s="3">
+        <v>38.4111</v>
+      </c>
+      <c r="K89" s="3">
+        <v>24.1244</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0.6281</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D90">
         <v>107</v>
@@ -3634,22 +5336,37 @@
       <c r="F90">
         <v>33</v>
       </c>
-      <c r="G90" t="s">
-        <v>295</v>
+      <c r="G90" s="2">
+        <v>0.4459</v>
       </c>
       <c r="H90" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" s="3">
+        <v>94.5444</v>
+      </c>
+      <c r="J90" s="3">
+        <v>59.9521</v>
+      </c>
+      <c r="K90" s="3">
+        <v>34.5923</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.577</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D91">
         <v>104</v>
@@ -3660,22 +5377,37 @@
       <c r="F91">
         <v>67</v>
       </c>
-      <c r="G91" t="s">
-        <v>296</v>
+      <c r="G91" s="2">
+        <v>1.8108</v>
       </c>
       <c r="H91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" s="3">
+        <v>31.7581</v>
+      </c>
+      <c r="J91" s="3">
+        <v>15.7572</v>
+      </c>
+      <c r="K91" s="3">
+        <v>16.0009</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1.0155</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D92">
         <v>101</v>
@@ -3686,22 +5418,37 @@
       <c r="F92">
         <v>19</v>
       </c>
-      <c r="G92" t="s">
-        <v>297</v>
+      <c r="G92" s="2">
+        <v>0.2317</v>
       </c>
       <c r="H92" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" s="3">
+        <v>63.0889</v>
+      </c>
+      <c r="J92" s="3">
+        <v>46.7923</v>
+      </c>
+      <c r="K92" s="3">
+        <v>16.2966</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.3483</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93">
         <v>100</v>
@@ -3712,19 +5459,34 @@
       <c r="F93">
         <v>18</v>
       </c>
-      <c r="G93" t="s">
-        <v>298</v>
+      <c r="G93" s="2">
+        <v>0.2195</v>
       </c>
       <c r="H93" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" s="3">
+        <v>29.7406</v>
+      </c>
+      <c r="J93" s="3">
+        <v>18.4612</v>
+      </c>
+      <c r="K93" s="3">
+        <v>11.2794</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.611</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
         <v>199</v>
@@ -3738,22 +5500,37 @@
       <c r="F94">
         <v>-30</v>
       </c>
-      <c r="G94" t="s">
-        <v>299</v>
+      <c r="G94" s="2">
+        <v>-0.2308</v>
       </c>
       <c r="H94" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I94" s="3">
+        <v>90.753</v>
+      </c>
+      <c r="J94" s="3">
+        <v>123.8537</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-33.1007</v>
+      </c>
+      <c r="L94" s="2">
+        <v>-0.2673</v>
+      </c>
+      <c r="M94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D95">
         <v>99</v>
@@ -3764,22 +5541,37 @@
       <c r="F95">
         <v>-32</v>
       </c>
-      <c r="G95" t="s">
-        <v>300</v>
+      <c r="G95" s="2">
+        <v>-0.2443</v>
       </c>
       <c r="H95" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I95" s="3">
+        <v>41.2913</v>
+      </c>
+      <c r="J95" s="3">
+        <v>52.2637</v>
+      </c>
+      <c r="K95" s="3">
+        <v>-10.9724</v>
+      </c>
+      <c r="L95" s="2">
+        <v>-0.2099</v>
+      </c>
+      <c r="M95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D96">
         <v>99</v>
@@ -3790,22 +5582,37 @@
       <c r="F96">
         <v>-37</v>
       </c>
-      <c r="G96" t="s">
-        <v>301</v>
+      <c r="G96" s="2">
+        <v>-0.2721</v>
       </c>
       <c r="H96" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I96" s="3">
+        <v>95.3658</v>
+      </c>
+      <c r="J96" s="3">
+        <v>154.1973</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-58.8315</v>
+      </c>
+      <c r="L96" s="2">
+        <v>-0.3815</v>
+      </c>
+      <c r="M96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D97">
         <v>97</v>
@@ -3816,22 +5623,37 @@
       <c r="F97">
         <v>32</v>
       </c>
-      <c r="G97" t="s">
-        <v>302</v>
+      <c r="G97" s="2">
+        <v>0.4923</v>
       </c>
       <c r="H97" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" s="3">
+        <v>34.8227</v>
+      </c>
+      <c r="J97" s="3">
+        <v>23.9769</v>
+      </c>
+      <c r="K97" s="3">
+        <v>10.8458</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.4523</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D98">
         <v>96</v>
@@ -3842,22 +5664,37 @@
       <c r="F98">
         <v>44</v>
       </c>
-      <c r="G98" t="s">
-        <v>303</v>
+      <c r="G98" s="2">
+        <v>0.8462</v>
       </c>
       <c r="H98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" s="3">
+        <v>47.5708</v>
+      </c>
+      <c r="J98" s="3">
+        <v>23.2961</v>
+      </c>
+      <c r="K98" s="3">
+        <v>24.2747</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1.042</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D99">
         <v>95</v>
@@ -3868,22 +5705,37 @@
       <c r="F99">
         <v>48</v>
       </c>
-      <c r="G99" t="s">
-        <v>304</v>
+      <c r="G99" s="2">
+        <v>1.0213</v>
       </c>
       <c r="H99" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" s="3">
+        <v>65.4229</v>
+      </c>
+      <c r="J99" s="3">
+        <v>22.4356</v>
+      </c>
+      <c r="K99" s="3">
+        <v>42.9873</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1.916</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D100">
         <v>94</v>
@@ -3894,22 +5746,37 @@
       <c r="F100">
         <v>62</v>
       </c>
-      <c r="G100" t="s">
-        <v>305</v>
+      <c r="G100" s="2">
+        <v>1.9375</v>
       </c>
       <c r="H100" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" s="3">
+        <v>36.2376</v>
+      </c>
+      <c r="J100" s="3">
+        <v>19.7492</v>
+      </c>
+      <c r="K100" s="3">
+        <v>16.4884</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.8349</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D101">
         <v>93</v>
@@ -3920,14 +5787,30 @@
       <c r="F101">
         <v>-31</v>
       </c>
-      <c r="G101" t="s">
-        <v>306</v>
+      <c r="G101" s="2">
+        <v>-0.25</v>
       </c>
       <c r="H101" t="s">
-        <v>308</v>
+        <v>17</v>
+      </c>
+      <c r="I101" s="3">
+        <v>119.0427</v>
+      </c>
+      <c r="J101" s="3">
+        <v>166.3562</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-47.3135</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-0.2844</v>
+      </c>
+      <c r="M101" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/数据整理/strategy/top100_rank.xlsx
+++ b/数据整理/strategy/top100_rank.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1基金重仓股T100" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2基金重仓股T100" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3基金重仓股T100" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4基金重仓股T100" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18043,4 +18044,5985 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q4持有数量（只）</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q3持有数量（只）</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比百分比</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量升或降</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q4持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q3持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比百分比</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值升或降</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2076</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F2" t="n">
+        <v>211</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.31%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1916.9457</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1683.3403</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>233.6054</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F3" t="n">
+        <v>264</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.33%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1590.6760</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1482.6493</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>108.0267</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>7.29%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1095</v>
+      </c>
+      <c r="F4" t="n">
+        <v>109</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>687.6871</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>558.7873</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>128.8998</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>23.07%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>隆基股份</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E5" t="n">
+        <v>935</v>
+      </c>
+      <c r="F5" t="n">
+        <v>117</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.51%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>712.2565</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>654.1677</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>58.0888</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.88%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-68</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-6.24%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>906.4862</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>939.9205</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-33.4343</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-3.56%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-3.68%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>574.9502</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>580.5832</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-5.6330</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>603259</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>799</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1359</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-560</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-41.21%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>630.7800</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>948.9634</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-318.1834</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-33.53%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泸州老窖</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>770</v>
+      </c>
+      <c r="E9" t="n">
+        <v>439</v>
+      </c>
+      <c r="F9" t="n">
+        <v>331</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>75.40%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>751.4835</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>580.1708</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>171.3127</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>29.53%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>731</v>
+      </c>
+      <c r="E10" t="n">
+        <v>325</v>
+      </c>
+      <c r="F10" t="n">
+        <v>406</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>124.92%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>508.2966</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>231.2592</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>277.0374</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>119.80%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>702</v>
+      </c>
+      <c r="E11" t="n">
+        <v>478</v>
+      </c>
+      <c r="F11" t="n">
+        <v>224</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>46.86%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>357.2016</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>338.3844</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18.8172</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5.56%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>670</v>
+      </c>
+      <c r="E12" t="n">
+        <v>597</v>
+      </c>
+      <c r="F12" t="n">
+        <v>73</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12.23%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>248.6266</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>207.7646</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>40.8620</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>19.67%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>300014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>亿纬锂能</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>610</v>
+      </c>
+      <c r="E13" t="n">
+        <v>460</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>32.61%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>431.7090</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>309.9956</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>121.7134</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>39.26%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>593</v>
+      </c>
+      <c r="E14" t="n">
+        <v>645</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-8.06%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>491.9374</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>472.2972</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>19.6402</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>583</v>
+      </c>
+      <c r="E15" t="n">
+        <v>759</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-176</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-23.19%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>477.6331</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>634.6446</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-157.0115</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-24.74%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002241</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>歌尔股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>279</v>
+      </c>
+      <c r="F16" t="n">
+        <v>236</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>84.59%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>240.9086</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>126.4422</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>114.4664</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>90.53%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>00700</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>腾讯控股</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>509</v>
+      </c>
+      <c r="E17" t="n">
+        <v>553</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-44</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-7.96%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>604.3459</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>591.7793</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>12.5666</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>508</v>
+      </c>
+      <c r="E18" t="n">
+        <v>484</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.96%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>336.9845</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>294.7879</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>42.1966</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>14.31%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宁波银行</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>507</v>
+      </c>
+      <c r="E19" t="n">
+        <v>409</v>
+      </c>
+      <c r="F19" t="n">
+        <v>98</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23.96%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>271.5875</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>212.5892</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>58.9983</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>27.75%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>482</v>
+      </c>
+      <c r="E20" t="n">
+        <v>484</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>186.9439</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>196.2191</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-9.2752</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-4.73%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>445</v>
+      </c>
+      <c r="E21" t="n">
+        <v>408</v>
+      </c>
+      <c r="F21" t="n">
+        <v>37</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>9.07%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>330.1474</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>230.7638</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>99.3836</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>43.07%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>603501</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>韦尔股份</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>445</v>
+      </c>
+      <c r="E22" t="n">
+        <v>237</v>
+      </c>
+      <c r="F22" t="n">
+        <v>208</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>87.76%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>317.6695</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>191.5263</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>126.1432</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>65.86%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>300274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>阳光电源</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>444</v>
+      </c>
+      <c r="E23" t="n">
+        <v>500</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-56</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-11.20%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>359.0253</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>358.5205</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>438</v>
+      </c>
+      <c r="E24" t="n">
+        <v>390</v>
+      </c>
+      <c r="F24" t="n">
+        <v>48</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12.31%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202.5373</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>177.8114</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>24.7259</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>13.91%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>421</v>
+      </c>
+      <c r="E25" t="n">
+        <v>318</v>
+      </c>
+      <c r="F25" t="n">
+        <v>103</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>32.39%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>204.1639</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>145.1740</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>58.9899</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>40.63%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>600809</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>山西汾酒</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>407</v>
+      </c>
+      <c r="E26" t="n">
+        <v>472</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-65</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-13.77%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>504.8687</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>518.6189</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-13.7502</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.65%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002466</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天齐锂业</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>397</v>
+      </c>
+      <c r="E27" t="n">
+        <v>383</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>261.9769</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>209.4357</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>52.5412</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>25.09%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北方华创</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>363</v>
+      </c>
+      <c r="E28" t="n">
+        <v>426</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-14.79%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>238.6497</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>236.5420</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2.1077</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中国中免</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>359</v>
+      </c>
+      <c r="E29" t="n">
+        <v>679</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-320</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-47.13%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>312.8911</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>474.3581</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-161.4670</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-34.04%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>354</v>
+      </c>
+      <c r="E30" t="n">
+        <v>329</v>
+      </c>
+      <c r="F30" t="n">
+        <v>25</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7.60%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>221.4188</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>186.0242</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>35.3946</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>19.03%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>603799</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>339</v>
+      </c>
+      <c r="E31" t="n">
+        <v>277</v>
+      </c>
+      <c r="F31" t="n">
+        <v>62</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>22.38%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>234.3091</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>250.2524</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-15.9433</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.37%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>278</v>
+      </c>
+      <c r="F32" t="n">
+        <v>55</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>19.78%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>159.7954</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>128.0283</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>31.7671</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>24.81%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002812</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恩捷股份</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>321</v>
+      </c>
+      <c r="E33" t="n">
+        <v>517</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-196</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-37.91%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>221.5455</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>309.8044</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-88.2589</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-28.49%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>290</v>
+      </c>
+      <c r="E34" t="n">
+        <v>242</v>
+      </c>
+      <c r="F34" t="n">
+        <v>48</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>83.3858</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>60.6715</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>22.7143</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>37.44%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>03690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>美团-W</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>288</v>
+      </c>
+      <c r="E35" t="n">
+        <v>288</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>266.9117</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>266.5118</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>286</v>
+      </c>
+      <c r="E36" t="n">
+        <v>383</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-97</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-25.33%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>144.4991</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>185.6495</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-41.1504</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-22.17%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002821</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>凯莱英</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>280</v>
+      </c>
+      <c r="E37" t="n">
+        <v>339</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-17.40%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>236.8199</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>303.8539</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-67.0340</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>-22.06%</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>603986</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>277</v>
+      </c>
+      <c r="E38" t="n">
+        <v>128</v>
+      </c>
+      <c r="F38" t="n">
+        <v>149</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>116.41%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>199.4207</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>115.7726</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>83.6481</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>72.25%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>251</v>
+      </c>
+      <c r="E39" t="n">
+        <v>283</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-32</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-11.31%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>142.5774</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>141.4982</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.0792</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>600309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万华化学</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>251</v>
+      </c>
+      <c r="E40" t="n">
+        <v>362</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-111</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-30.66%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>143.1101</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>191.6513</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-48.5412</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-25.33%</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>300450</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先导智能</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>245</v>
+      </c>
+      <c r="E41" t="n">
+        <v>222</v>
+      </c>
+      <c r="F41" t="n">
+        <v>23</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>146.4935</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>146.5831</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-0.0896</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>600745</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>闻泰科技</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>243</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92</v>
+      </c>
+      <c r="F42" t="n">
+        <v>151</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>164.13%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>209.5781</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>74.1838</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>135.3943</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>182.51%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>238</v>
+      </c>
+      <c r="E43" t="n">
+        <v>429</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-191</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-44.52%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>144.2135</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>289.4892</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>-145.2757</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-50.18%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000776</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发证券</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>235</v>
+      </c>
+      <c r="E44" t="n">
+        <v>141</v>
+      </c>
+      <c r="F44" t="n">
+        <v>94</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>105.9592</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>75.5284</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>30.4308</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>40.29%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>300122</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>智飞生物</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>230</v>
+      </c>
+      <c r="E45" t="n">
+        <v>426</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-196</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-46.01%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>146.2541</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>244.6099</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-98.3558</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-40.21%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中航光电</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>226</v>
+      </c>
+      <c r="E46" t="n">
+        <v>139</v>
+      </c>
+      <c r="F46" t="n">
+        <v>87</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>62.59%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>145.8057</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>116.5316</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>29.2741</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>25.12%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方雨虹</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>224</v>
+      </c>
+      <c r="E47" t="n">
+        <v>107</v>
+      </c>
+      <c r="F47" t="n">
+        <v>117</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>109.35%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>130.1201</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>99.8473</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>30.2728</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>30.32%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000733</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>振华科技</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>223</v>
+      </c>
+      <c r="E48" t="n">
+        <v>150</v>
+      </c>
+      <c r="F48" t="n">
+        <v>73</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>48.67%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>174.1671</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>143.3974</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>30.7697</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>21.46%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>600905</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>三峡能源</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>220</v>
+      </c>
+      <c r="E49" t="n">
+        <v>366</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-146</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-39.89%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>51.8515</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>64.2460</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-12.3945</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-19.29%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>300124</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇川技术</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>214</v>
+      </c>
+      <c r="E50" t="n">
+        <v>195</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>9.74%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>120.0515</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>127.3056</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-7.2541</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>-5.70%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>300015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>爱尔眼科</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>212</v>
+      </c>
+      <c r="E51" t="n">
+        <v>373</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-161</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-43.16%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>204.1263</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>377.0773</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-172.9510</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-45.87%</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>210</v>
+      </c>
+      <c r="E52" t="n">
+        <v>190</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10.53%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>137.6166</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>117.4366</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>20.1800</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>17.18%</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>600438</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>通威股份</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>209</v>
+      </c>
+      <c r="E53" t="n">
+        <v>406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-197</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-48.52%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>164.1542</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>233.3870</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-69.2328</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-29.66%</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>600570</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>200</v>
+      </c>
+      <c r="E54" t="n">
+        <v>185</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>8.11%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>98.8405</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>84.2388</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>14.6017</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>17.33%</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>02382</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>舜宇光学科技</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>199</v>
+      </c>
+      <c r="E55" t="n">
+        <v>155</v>
+      </c>
+      <c r="F55" t="n">
+        <v>44</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>28.39%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>189.7939</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>134.4578</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>55.3361</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>41.15%</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>199</v>
+      </c>
+      <c r="E56" t="n">
+        <v>122</v>
+      </c>
+      <c r="F56" t="n">
+        <v>77</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>63.11%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>155.6132</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>130.6970</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>24.9162</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>19.06%</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海大集团</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>196</v>
+      </c>
+      <c r="E57" t="n">
+        <v>204</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-3.92%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>147.3955</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>162.3686</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>-14.9731</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>-9.22%</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>688599</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天合光能</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>194</v>
+      </c>
+      <c r="E58" t="n">
+        <v>127</v>
+      </c>
+      <c r="F58" t="n">
+        <v>67</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>52.76%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>173.4912</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>62.3670</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>111.1242</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>178.18%</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000661</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长春高新</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>194</v>
+      </c>
+      <c r="E59" t="n">
+        <v>236</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-42</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-17.80%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>143.2803</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>129.7031</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>13.5772</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>10.47%</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002709</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>192</v>
+      </c>
+      <c r="E60" t="n">
+        <v>512</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-320</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-62.50%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>122.3431</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>312.4867</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>-190.1436</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>-60.85%</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>185</v>
+      </c>
+      <c r="E61" t="n">
+        <v>375</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-190</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-50.67%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>161.9492</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>313.6483</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>-151.6991</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>-48.37%</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>603806</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>福斯特</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>181</v>
+      </c>
+      <c r="E62" t="n">
+        <v>174</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4.02%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>112.2747</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>105.6044</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>6.6703</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>600703</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>174</v>
+      </c>
+      <c r="E63" t="n">
+        <v>85</v>
+      </c>
+      <c r="F63" t="n">
+        <v>89</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>104.71%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>211.1469</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>190.0056</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>21.1413</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>11.13%</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002459</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>晶澳科技</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>173</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92</v>
+      </c>
+      <c r="F64" t="n">
+        <v>81</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>88.04%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>156.7631</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>81.7119</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>75.0512</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>91.85%</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>600399</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>抚顺特钢</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>172</v>
+      </c>
+      <c r="E65" t="n">
+        <v>143</v>
+      </c>
+      <c r="F65" t="n">
+        <v>29</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>20.28%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>113.0624</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>87.0003</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>26.0621</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>29.96%</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002129</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中环股份</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>169</v>
+      </c>
+      <c r="E66" t="n">
+        <v>186</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-9.14%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>80.3923</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>104.4266</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-24.0343</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-23.02%</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>168</v>
+      </c>
+      <c r="E67" t="n">
+        <v>122</v>
+      </c>
+      <c r="F67" t="n">
+        <v>46</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>37.70%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>304.6671</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>325.0709</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-20.4038</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>-6.28%</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>600436</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>片仔癀</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>167</v>
+      </c>
+      <c r="E68" t="n">
+        <v>101</v>
+      </c>
+      <c r="F68" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>127.5474</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>59.1500</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>68.3974</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>115.63%</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>166</v>
+      </c>
+      <c r="E69" t="n">
+        <v>177</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-11</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-6.21%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>100.0626</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>140.0123</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-39.9497</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>-28.53%</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>600522</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中天科技</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>162</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>159</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5300.00%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>71.8902</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.4213</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>70.4689</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4958.06%</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>600893</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>航发动力</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>160</v>
+      </c>
+      <c r="E71" t="n">
+        <v>91</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>75.82%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>98.5482</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>73.3797</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>25.1685</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>34.30%</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>300363</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博腾股份</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>157</v>
+      </c>
+      <c r="E72" t="n">
+        <v>175</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-10.29%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>122.2381</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>158.5591</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>-36.3210</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-22.91%</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>600884</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>杉杉股份</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>156</v>
+      </c>
+      <c r="E73" t="n">
+        <v>146</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>53.0843</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>50.7291</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.3552</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>600765</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中航重机</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>154</v>
+      </c>
+      <c r="E74" t="n">
+        <v>58</v>
+      </c>
+      <c r="F74" t="n">
+        <v>96</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>165.52%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>49.3800</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>21.9945</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>27.3855</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>124.51%</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000792</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>盐湖股份</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>153</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>137</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>856.25%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>96.6872</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>11.0168</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>85.6704</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>777.63%</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>152</v>
+      </c>
+      <c r="E76" t="n">
+        <v>22</v>
+      </c>
+      <c r="F76" t="n">
+        <v>130</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>590.91%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>55.1205</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>9.4302</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>45.6903</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>484.51%</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>151</v>
+      </c>
+      <c r="E77" t="n">
+        <v>113</v>
+      </c>
+      <c r="F77" t="n">
+        <v>38</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>33.63%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>82.9184</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>76.7583</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>6.1601</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>8.03%</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>601398</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工商银行</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>150</v>
+      </c>
+      <c r="E78" t="n">
+        <v>142</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>48.6175</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>36.0426</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>12.5749</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>34.89%</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>300413</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>芒果超媒</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>150</v>
+      </c>
+      <c r="E79" t="n">
+        <v>82</v>
+      </c>
+      <c r="F79" t="n">
+        <v>68</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>82.93%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>92.4363</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>92.0710</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>603456</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>九洲药业</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>149</v>
+      </c>
+      <c r="E80" t="n">
+        <v>139</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>7.19%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>93.1428</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>70.1871</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>22.9557</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>32.71%</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>300661</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>圣邦股份</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>149</v>
+      </c>
+      <c r="E81" t="n">
+        <v>169</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-11.83%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>196.8655</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>216.7706</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-19.9051</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>-9.18%</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>600383</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金地集团</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>148</v>
+      </c>
+      <c r="E82" t="n">
+        <v>67</v>
+      </c>
+      <c r="F82" t="n">
+        <v>81</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>120.90%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>67.8410</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>23.0625</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>44.7785</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>194.16%</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>148</v>
+      </c>
+      <c r="E83" t="n">
+        <v>124</v>
+      </c>
+      <c r="F83" t="n">
+        <v>24</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>19.35%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>61.8418</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>24.4566</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>37.3852</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>152.86%</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002756</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>148</v>
+      </c>
+      <c r="E84" t="n">
+        <v>89</v>
+      </c>
+      <c r="F84" t="n">
+        <v>59</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>66.29%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>65.5542</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>50.1195</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>15.4347</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>30.80%</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>147</v>
+      </c>
+      <c r="E85" t="n">
+        <v>156</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-5.77%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>83.1974</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>81.1586</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2.0388</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002352</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>顺丰控股</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>139</v>
+      </c>
+      <c r="E86" t="n">
+        <v>117</v>
+      </c>
+      <c r="F86" t="n">
+        <v>22</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18.80%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>108.7497</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>91.7081</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>17.0416</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>18.58%</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>135</v>
+      </c>
+      <c r="E87" t="n">
+        <v>128</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>5.47%</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>82.3773</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>78.6318</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3.7455</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>三七互娱</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>135</v>
+      </c>
+      <c r="E88" t="n">
+        <v>64</v>
+      </c>
+      <c r="F88" t="n">
+        <v>71</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>110.94%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>52.8100</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>34.4016</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>18.4084</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>53.51%</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>601058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>赛轮轮胎</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>134</v>
+      </c>
+      <c r="E89" t="n">
+        <v>80</v>
+      </c>
+      <c r="F89" t="n">
+        <v>54</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>67.50%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>85.8580</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>60.0079</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>25.8501</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>43.08%</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广联达</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>133</v>
+      </c>
+      <c r="E90" t="n">
+        <v>147</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-9.52%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>97.6083</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>108.4312</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>-10.8229</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>-9.98%</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>601877</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>正泰电器</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>133</v>
+      </c>
+      <c r="E91" t="n">
+        <v>175</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-42</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-24.00%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>105.1208</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>110.9695</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-5.8487</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>603659</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>璞泰来</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>133</v>
+      </c>
+      <c r="E92" t="n">
+        <v>206</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-73</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-35.44%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>119.4780</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>134.5691</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>-15.0911</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-11.21%</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>688536</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>思瑞浦</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>133</v>
+      </c>
+      <c r="E93" t="n">
+        <v>82</v>
+      </c>
+      <c r="F93" t="n">
+        <v>51</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>62.20%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>75.1148</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>56.1983</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>18.9165</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>33.66%</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>600406</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国电南瑞</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>132</v>
+      </c>
+      <c r="E94" t="n">
+        <v>120</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>44.2599</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>30.1433</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>14.1166</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>46.83%</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>300207</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>欣旺达</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>131</v>
+      </c>
+      <c r="E95" t="n">
+        <v>133</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>108.3747</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>95.2172</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>13.1575</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>13.82%</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000651</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>格力电器</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>131</v>
+      </c>
+      <c r="E96" t="n">
+        <v>130</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>41.0266</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>26.9590</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>14.0676</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>52.18%</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>02269</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>药明生物</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>131</v>
+      </c>
+      <c r="E97" t="n">
+        <v>248</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-47.18%</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>103.2358</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>205.2920</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>-102.0562</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>-49.71%</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>600660</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>福耀玻璃</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>130</v>
+      </c>
+      <c r="E98" t="n">
+        <v>81</v>
+      </c>
+      <c r="F98" t="n">
+        <v>49</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>60.49%</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>65.1171</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>57.9322</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>7.1849</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>12.40%</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600885</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宏发股份</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>129</v>
+      </c>
+      <c r="E99" t="n">
+        <v>78</v>
+      </c>
+      <c r="F99" t="n">
+        <v>51</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>45.6737</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>43.1496</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2.5241</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>5.85%</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>300316</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>晶盛机电</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>129</v>
+      </c>
+      <c r="E100" t="n">
+        <v>156</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-27</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-17.31%</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>52.2167</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>63.5912</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>-11.3745</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>-17.89%</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>688099</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>晶晨股份</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>127</v>
+      </c>
+      <c r="E101" t="n">
+        <v>88</v>
+      </c>
+      <c r="F101" t="n">
+        <v>39</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>44.32%</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>80.6609</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>67.2805</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>13.3804</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>19.89%</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/strategy/top100_rank.xlsx
+++ b/数据整理/strategy/top100_rank.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2基金重仓股T100" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3基金重仓股T100" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4基金重仓股T100" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1基金重仓股T100" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -24025,4 +24026,5985 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q1持有数量（只）</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q4持有数量（只）</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比百分比</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量升或降</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q1持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>2021-Q4持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比百分比</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值升或降</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1986</v>
+      </c>
+      <c r="F2" t="n">
+        <v>203</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.22%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1545.9017</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1590.6760</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-44.7743</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-2.81%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2076</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1687.4805</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1916.9457</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-229.4652</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-11.97%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>551.2903</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>574.9502</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-23.6599</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-4.12%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>隆基股份</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-44</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-4.18%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>608.6612</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>712.2565</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-103.5953</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-14.54%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>603259</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>799</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25.03%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>679.4987</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>630.7800</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>48.7187</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.72%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>751</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-271</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-26.52%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>569.4696</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>906.4862</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-337.0166</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-37.18%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>716</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-488</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-40.53%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>392.5878</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>687.6871</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-295.0993</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-42.91%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>685</v>
+      </c>
+      <c r="E9" t="n">
+        <v>421</v>
+      </c>
+      <c r="F9" t="n">
+        <v>264</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62.71%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>286.1055</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>204.1639</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>81.9416</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>40.14%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>702</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-4.99%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>335.2132</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>357.2016</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-21.9884</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-6.16%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>651</v>
+      </c>
+      <c r="E11" t="n">
+        <v>482</v>
+      </c>
+      <c r="F11" t="n">
+        <v>169</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>35.06%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>225.1629</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>186.9439</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>38.2190</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>20.44%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>612</v>
+      </c>
+      <c r="E12" t="n">
+        <v>593</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>419.1197</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>491.9374</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-72.8177</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-14.80%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000568</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泸州老窖</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>567</v>
+      </c>
+      <c r="E13" t="n">
+        <v>770</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-203</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-26.36%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>540.6073</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>751.4835</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-210.8762</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-28.06%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宁波银行</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>564</v>
+      </c>
+      <c r="E14" t="n">
+        <v>507</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>276.5091</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>271.5875</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4.9216</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>300122</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>智飞生物</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>551</v>
+      </c>
+      <c r="E15" t="n">
+        <v>230</v>
+      </c>
+      <c r="F15" t="n">
+        <v>321</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>139.57%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>246.0231</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>146.2541</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>99.7690</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>68.22%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>548</v>
+      </c>
+      <c r="E16" t="n">
+        <v>445</v>
+      </c>
+      <c r="F16" t="n">
+        <v>103</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23.15%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>340.4902</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>330.1474</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10.3428</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>528</v>
+      </c>
+      <c r="E17" t="n">
+        <v>508</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.94%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>280.6449</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>336.9845</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-56.3396</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-16.72%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>523</v>
+      </c>
+      <c r="E18" t="n">
+        <v>670</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-147</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-21.94%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>207.1939</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>248.6266</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-41.4327</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-16.66%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>521</v>
+      </c>
+      <c r="E19" t="n">
+        <v>731</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-28.73%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>293.5646</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>508.2966</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-214.7320</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-42.25%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>496</v>
+      </c>
+      <c r="E20" t="n">
+        <v>438</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13.24%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>195.6662</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>202.5373</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-6.8711</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-3.39%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>487</v>
+      </c>
+      <c r="E21" t="n">
+        <v>583</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-96</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-16.47%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>332.4216</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>477.6331</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-145.2115</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-30.40%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>00700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>腾讯控股</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>472</v>
+      </c>
+      <c r="E22" t="n">
+        <v>509</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-37</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-7.27%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>479.4948</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>604.3459</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-124.8511</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-20.66%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>443</v>
+      </c>
+      <c r="E23" t="n">
+        <v>151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>292</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>193.38%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>179.5681</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>82.9184</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>96.6497</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>116.56%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>419</v>
+      </c>
+      <c r="E24" t="n">
+        <v>166</v>
+      </c>
+      <c r="F24" t="n">
+        <v>253</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>152.41%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>203.1581</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.0626</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>103.0955</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>103.03%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002371</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北方华创</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>417</v>
+      </c>
+      <c r="E25" t="n">
+        <v>363</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>14.88%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>190.5539</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>238.6497</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-48.0958</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-20.15%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>603799</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>410</v>
+      </c>
+      <c r="E26" t="n">
+        <v>339</v>
+      </c>
+      <c r="F26" t="n">
+        <v>71</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20.94%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>268.8365</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>234.3091</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>34.5274</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>14.74%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>300014</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>亿纬锂能</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>410</v>
+      </c>
+      <c r="E27" t="n">
+        <v>610</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-32.79%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>284.0876</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>431.7090</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-147.6214</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-34.19%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002812</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恩捷股份</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>406</v>
+      </c>
+      <c r="E28" t="n">
+        <v>321</v>
+      </c>
+      <c r="F28" t="n">
+        <v>85</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>26.48%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>249.5304</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>221.5455</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>27.9849</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>12.63%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>600809</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>山西汾酒</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>359</v>
+      </c>
+      <c r="E29" t="n">
+        <v>407</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-11.79%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>395.8154</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>504.8687</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-109.0533</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-21.60%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>357</v>
+      </c>
+      <c r="E30" t="n">
+        <v>152</v>
+      </c>
+      <c r="F30" t="n">
+        <v>205</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>134.87%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>98.6805</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>55.1205</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>43.5600</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>79.03%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03690</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>美团-W</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>349</v>
+      </c>
+      <c r="E31" t="n">
+        <v>288</v>
+      </c>
+      <c r="F31" t="n">
+        <v>61</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>21.18%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>316.0909</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>266.9117</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>49.1792</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18.43%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>349</v>
+      </c>
+      <c r="E32" t="n">
+        <v>354</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1.41%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>212.0676</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>221.4188</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-9.3512</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-4.22%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>327</v>
+      </c>
+      <c r="E33" t="n">
+        <v>251</v>
+      </c>
+      <c r="F33" t="n">
+        <v>76</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30.28%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>140.8856</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>142.5774</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-1.6918</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>300274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>阳光电源</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>321</v>
+      </c>
+      <c r="E34" t="n">
+        <v>444</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-123</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-27.70%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>277.4567</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>359.0253</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-81.5686</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-22.72%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002466</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天齐锂业</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>319</v>
+      </c>
+      <c r="E35" t="n">
+        <v>397</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-78</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-19.65%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>173.2514</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>261.9769</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-88.7255</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-33.87%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>315</v>
+      </c>
+      <c r="E36" t="n">
+        <v>290</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>83.8736</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>83.3858</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002821</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>凯莱英</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>311</v>
+      </c>
+      <c r="E37" t="n">
+        <v>280</v>
+      </c>
+      <c r="F37" t="n">
+        <v>31</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>11.07%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>187.0218</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>236.8199</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-49.7981</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>-21.03%</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>304</v>
+      </c>
+      <c r="E38" t="n">
+        <v>238</v>
+      </c>
+      <c r="F38" t="n">
+        <v>66</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>27.73%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>152.5868</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>144.2135</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>8.3733</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>600438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>通威股份</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>297</v>
+      </c>
+      <c r="E39" t="n">
+        <v>209</v>
+      </c>
+      <c r="F39" t="n">
+        <v>88</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>42.11%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>197.2457</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>164.1542</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>33.0915</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>20.16%</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>291</v>
+      </c>
+      <c r="E40" t="n">
+        <v>286</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>105.7377</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>144.4991</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-38.7614</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-26.82%</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000733</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>振华科技</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>290</v>
+      </c>
+      <c r="E41" t="n">
+        <v>223</v>
+      </c>
+      <c r="F41" t="n">
+        <v>67</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>30.04%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>194.0941</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>174.1671</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>19.9270</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>11.44%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>603501</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>韦尔股份</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>288</v>
+      </c>
+      <c r="E42" t="n">
+        <v>445</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-157</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-35.28%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>177.4676</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>317.6695</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-140.2019</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-44.13%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中国中免</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>283</v>
+      </c>
+      <c r="E43" t="n">
+        <v>359</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-76</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-21.17%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>194.9779</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>312.8911</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>-117.9132</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-37.69%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002129</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中环股份</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>281</v>
+      </c>
+      <c r="E44" t="n">
+        <v>169</v>
+      </c>
+      <c r="F44" t="n">
+        <v>112</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>66.27%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>150.2437</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>80.3923</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>69.8514</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>86.89%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>603986</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>272</v>
+      </c>
+      <c r="E45" t="n">
+        <v>277</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>194.4010</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>199.4207</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-5.0197</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-2.52%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>600522</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中天科技</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>270</v>
+      </c>
+      <c r="E46" t="n">
+        <v>162</v>
+      </c>
+      <c r="F46" t="n">
+        <v>108</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>89.6056</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>71.8902</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>17.7154</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>24.64%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002241</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>歌尔股份</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>269</v>
+      </c>
+      <c r="E47" t="n">
+        <v>515</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-246</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-47.77%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>91.4532</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>240.9086</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-149.4554</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-62.04%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>263</v>
+      </c>
+      <c r="E48" t="n">
+        <v>333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-70</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-21.02%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>122.8652</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>159.7954</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-36.9302</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-23.11%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>300363</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博腾股份</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>256</v>
+      </c>
+      <c r="E49" t="n">
+        <v>157</v>
+      </c>
+      <c r="F49" t="n">
+        <v>99</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>63.06%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>140.8245</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>122.2381</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>18.5864</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>15.21%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>600383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金地集团</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>247</v>
+      </c>
+      <c r="E50" t="n">
+        <v>148</v>
+      </c>
+      <c r="F50" t="n">
+        <v>99</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>66.89%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>97.2136</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>67.8410</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>29.3726</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>43.30%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>601985</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中国核电</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>247</v>
+      </c>
+      <c r="E51" t="n">
+        <v>77</v>
+      </c>
+      <c r="F51" t="n">
+        <v>170</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>220.78%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>82.1385</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>24.7345</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>57.4040</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>232.08%</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方雨虹</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>234</v>
+      </c>
+      <c r="E52" t="n">
+        <v>224</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>4.46%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>166.7815</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>130.1201</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>36.6614</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>28.18%</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中航光电</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>232</v>
+      </c>
+      <c r="E53" t="n">
+        <v>226</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2.65%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>122.7847</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>145.8057</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-23.0210</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-15.79%</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>228</v>
+      </c>
+      <c r="E54" t="n">
+        <v>111</v>
+      </c>
+      <c r="F54" t="n">
+        <v>117</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>105.41%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>89.2819</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>40.6514</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>48.6305</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>119.63%</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>227</v>
+      </c>
+      <c r="E55" t="n">
+        <v>185</v>
+      </c>
+      <c r="F55" t="n">
+        <v>42</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>22.70%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>108.5958</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>161.9492</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-53.3534</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-32.94%</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>300661</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圣邦股份</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>227</v>
+      </c>
+      <c r="E56" t="n">
+        <v>149</v>
+      </c>
+      <c r="F56" t="n">
+        <v>78</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>52.35%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>222.2116</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>196.8655</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>25.3461</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>12.87%</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>600426</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华鲁恒升</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>216</v>
+      </c>
+      <c r="E57" t="n">
+        <v>119</v>
+      </c>
+      <c r="F57" t="n">
+        <v>97</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>81.51%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>98.0260</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>54.5777</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>43.4483</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>79.61%</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>688599</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天合光能</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>212</v>
+      </c>
+      <c r="E58" t="n">
+        <v>194</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>9.28%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>144.8827</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>173.4912</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>-28.6085</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>-16.49%</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002459</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>晶澳科技</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>212</v>
+      </c>
+      <c r="E59" t="n">
+        <v>173</v>
+      </c>
+      <c r="F59" t="n">
+        <v>39</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>22.54%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>169.4723</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>156.7631</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>12.7092</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>8.11%</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>601398</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工商银行</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>210</v>
+      </c>
+      <c r="E60" t="n">
+        <v>150</v>
+      </c>
+      <c r="F60" t="n">
+        <v>60</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>82.0609</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>48.6175</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>33.4434</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>68.79%</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>601088</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中国神华</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>202</v>
+      </c>
+      <c r="E61" t="n">
+        <v>112</v>
+      </c>
+      <c r="F61" t="n">
+        <v>90</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>80.36%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>71.9849</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>34.1457</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>37.8392</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>110.82%</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>600188</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兖矿能源</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>201</v>
+      </c>
+      <c r="E62" t="n">
+        <v>54</v>
+      </c>
+      <c r="F62" t="n">
+        <v>147</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>272.22%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>62.8505</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>27.7681</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>35.0824</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>126.34%</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>688005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>容百科技</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>201</v>
+      </c>
+      <c r="E63" t="n">
+        <v>71</v>
+      </c>
+      <c r="F63" t="n">
+        <v>130</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>183.10%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>115.1437</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>48.2085</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>66.9352</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>138.85%</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>600941</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中国移动</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>198</v>
+      </c>
+      <c r="E64" t="n">
+        <v>91</v>
+      </c>
+      <c r="F64" t="n">
+        <v>107</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>117.58%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>52.4138</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6.9713</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>45.4425</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>651.85%</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>300450</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先导智能</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>193</v>
+      </c>
+      <c r="E65" t="n">
+        <v>245</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-21.22%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>114.1196</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>146.4935</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>-32.3739</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-22.10%</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>600309</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万华化学</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>191</v>
+      </c>
+      <c r="E66" t="n">
+        <v>251</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-23.90%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>101.6905</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>143.1101</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-41.4196</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-28.94%</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002709</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>189</v>
+      </c>
+      <c r="E67" t="n">
+        <v>192</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>133.6593</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>122.3431</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>11.3162</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>9.25%</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>603806</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>福斯特</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>188</v>
+      </c>
+      <c r="E68" t="n">
+        <v>181</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>3.87%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>106.9887</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>112.2747</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-5.2860</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-4.71%</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>600256</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广汇能源</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>186</v>
+      </c>
+      <c r="E69" t="n">
+        <v>47</v>
+      </c>
+      <c r="F69" t="n">
+        <v>139</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>295.74%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>77.3731</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>29.1558</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>48.2173</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>165.38%</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>300015</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>爱尔眼科</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>184</v>
+      </c>
+      <c r="E70" t="n">
+        <v>212</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-28</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-13.21%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>127.7233</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>204.1263</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-76.4030</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>-37.43%</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>300124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇川技术</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>184</v>
+      </c>
+      <c r="E71" t="n">
+        <v>214</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-14.02%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>133.3910</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>120.0515</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>13.3395</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001979</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商蛇口</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>181</v>
+      </c>
+      <c r="E72" t="n">
+        <v>107</v>
+      </c>
+      <c r="F72" t="n">
+        <v>74</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>69.16%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>59.5306</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>45.4308</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>14.0998</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>31.04%</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000776</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发证券</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>179</v>
+      </c>
+      <c r="E73" t="n">
+        <v>235</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-56</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-23.83%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>56.6759</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>105.9592</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>-49.2833</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-46.51%</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>603392</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万泰生物</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>177</v>
+      </c>
+      <c r="E74" t="n">
+        <v>63</v>
+      </c>
+      <c r="F74" t="n">
+        <v>114</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>180.95%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>54.6920</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>30.0020</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>24.6900</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>82.29%</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000792</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>盐湖股份</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>176</v>
+      </c>
+      <c r="E75" t="n">
+        <v>153</v>
+      </c>
+      <c r="F75" t="n">
+        <v>23</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>15.03%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>104.2618</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>96.6872</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>7.5746</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>600765</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中航重机</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>174</v>
+      </c>
+      <c r="E76" t="n">
+        <v>154</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>74.1228</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>49.3800</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>24.7428</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>50.11%</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>165</v>
+      </c>
+      <c r="E77" t="n">
+        <v>168</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>274.1066</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>304.6671</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>-30.5605</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>-10.03%</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>603659</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>璞泰来</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>165</v>
+      </c>
+      <c r="E78" t="n">
+        <v>133</v>
+      </c>
+      <c r="F78" t="n">
+        <v>32</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>24.06%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>117.2657</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>119.4780</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-2.2123</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>-1.85%</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>601225</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>陕西煤业</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>165</v>
+      </c>
+      <c r="E79" t="n">
+        <v>66</v>
+      </c>
+      <c r="F79" t="n">
+        <v>99</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>150.00%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>49.5619</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>25.7826</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23.7793</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>92.23%</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>600919</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>江苏银行</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>162</v>
+      </c>
+      <c r="E80" t="n">
+        <v>62</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>161.29%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>28.0894</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>8.3735</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>19.7159</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>235.46%</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>300769</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德方纳米</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>162</v>
+      </c>
+      <c r="E81" t="n">
+        <v>71</v>
+      </c>
+      <c r="F81" t="n">
+        <v>91</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>128.17%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>71.5358</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>30.3930</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>41.1428</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>135.37%</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002756</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>156</v>
+      </c>
+      <c r="E82" t="n">
+        <v>148</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>65.8108</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>65.5542</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>603456</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九洲药业</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>153</v>
+      </c>
+      <c r="E83" t="n">
+        <v>149</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>76.7695</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>93.1428</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-16.3733</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-17.58%</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>300896</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>爱美客</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>151</v>
+      </c>
+      <c r="E84" t="n">
+        <v>101</v>
+      </c>
+      <c r="F84" t="n">
+        <v>50</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>49.50%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>84.2453</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>59.9112</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>24.3341</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>40.62%</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>601677</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>明泰铝业</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>151</v>
+      </c>
+      <c r="E85" t="n">
+        <v>122</v>
+      </c>
+      <c r="F85" t="n">
+        <v>29</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>23.77%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>71.2314</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>61.2308</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>10.0006</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>16.33%</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>三七互娱</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>150</v>
+      </c>
+      <c r="E86" t="n">
+        <v>135</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>69.8650</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>52.8100</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>17.0550</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>32.30%</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>148</v>
+      </c>
+      <c r="E87" t="n">
+        <v>210</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-29.52%</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>74.7573</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>137.6166</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>-62.8593</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>-45.68%</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广联达</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>147</v>
+      </c>
+      <c r="E88" t="n">
+        <v>133</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10.53%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>82.8908</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>97.6083</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>-14.7175</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-15.08%</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002027</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>分众传媒</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>146</v>
+      </c>
+      <c r="E89" t="n">
+        <v>199</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-26.63%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>90.1176</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>155.6132</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>-65.4956</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>-42.09%</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>600745</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>闻泰科技</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>144</v>
+      </c>
+      <c r="E90" t="n">
+        <v>243</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-99</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-40.74%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>121.2972</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>209.5781</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>-88.2809</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>-42.12%</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002920</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>德赛西威</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>144</v>
+      </c>
+      <c r="E91" t="n">
+        <v>117</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>23.08%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>45.5885</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>53.1661</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-7.5776</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-14.25%</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>00941</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中国移动</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>142</v>
+      </c>
+      <c r="E92" t="n">
+        <v>62</v>
+      </c>
+      <c r="F92" t="n">
+        <v>80</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>129.03%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>109.0460</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>33.7411</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>75.3049</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>223.18%</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>142</v>
+      </c>
+      <c r="E93" t="n">
+        <v>77</v>
+      </c>
+      <c r="F93" t="n">
+        <v>65</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>84.42%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>25.1977</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>16.1316</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>9.0661</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>56.20%</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>02269</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>药明生物</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>142</v>
+      </c>
+      <c r="E94" t="n">
+        <v>131</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>68.1346</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>103.2358</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>-35.1012</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-34.00%</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海大集团</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>142</v>
+      </c>
+      <c r="E95" t="n">
+        <v>196</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-54</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-27.55%</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>107.9353</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>147.3955</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>-39.4602</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>-26.77%</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>600233</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>圆通速递</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>142</v>
+      </c>
+      <c r="E96" t="n">
+        <v>57</v>
+      </c>
+      <c r="F96" t="n">
+        <v>85</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>149.12%</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>18.1109</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>11.4272</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>6.6837</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>58.49%</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>601328</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>交通银行</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>141</v>
+      </c>
+      <c r="E97" t="n">
+        <v>81</v>
+      </c>
+      <c r="F97" t="n">
+        <v>60</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>37.0659</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>22.0468</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15.0191</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>601288</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>140</v>
+      </c>
+      <c r="E98" t="n">
+        <v>81</v>
+      </c>
+      <c r="F98" t="n">
+        <v>59</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>72.84%</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>39.7114</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>27.4375</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12.2739</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>44.73%</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600563</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>138</v>
+      </c>
+      <c r="E99" t="n">
+        <v>105</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>31.43%</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>122.0463</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>94.1438</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>27.9025</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>29.64%</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>300316</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>晶盛机电</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>137</v>
+      </c>
+      <c r="E100" t="n">
+        <v>129</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>6.20%</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>68.6559</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>52.2167</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>16.4392</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>31.48%</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>快手-W</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>136</v>
+      </c>
+      <c r="E101" t="n">
+        <v>69</v>
+      </c>
+      <c r="F101" t="n">
+        <v>67</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>97.10%</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>116.2845</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>70.9335</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>45.3510</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>63.93%</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/strategy/top100_rank.xlsx
+++ b/数据整理/strategy/top100_rank.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3基金重仓股T100" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4基金重仓股T100" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1基金重仓股T100" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2基金重仓股T100" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -30007,4 +30008,5985 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q2持有数量（只）</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q1持有数量（只）</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量环比百分比</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>持有数量升或降</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q2持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>2022-Q1持有市值（亿元）</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值环比百分比</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>持有市值升或降</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2084</v>
+      </c>
+      <c r="F2" t="n">
+        <v>412</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.77%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1949.3237</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1687.4805</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>261.8432</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15.52%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2296</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F3" t="n">
+        <v>107</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1476.9035</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1545.9017</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-68.9982</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-4.46%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>隆基绿能</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>407</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>40.38%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>825.0624</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>608.6612</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>216.4012</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>35.55%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000858</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>五粮液</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E5" t="n">
+        <v>751</v>
+      </c>
+      <c r="F5" t="n">
+        <v>351</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>46.74%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>860.5053</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>569.4696</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>291.0357</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>51.11%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>716</v>
+      </c>
+      <c r="F6" t="n">
+        <v>233</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>32.54%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>532.8523</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>392.5878</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>140.2645</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>35.73%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>932</v>
+      </c>
+      <c r="E7" t="n">
+        <v>528</v>
+      </c>
+      <c r="F7" t="n">
+        <v>404</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>76.52%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>481.5566</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>280.6449</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>200.9117</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>71.59%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泸州老窖</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>876</v>
+      </c>
+      <c r="E8" t="n">
+        <v>567</v>
+      </c>
+      <c r="F8" t="n">
+        <v>309</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>54.50%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>723.3362</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>540.6073</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>182.7289</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>33.80%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>793</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-243</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-23.46%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>407.8711</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>551.2903</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-143.4192</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-26.02%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>603259</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>766</v>
+      </c>
+      <c r="E10" t="n">
+        <v>999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-233</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-23.32%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>602.6198</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>679.4987</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-76.8789</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-11.31%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中国中免</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>655</v>
+      </c>
+      <c r="E11" t="n">
+        <v>283</v>
+      </c>
+      <c r="F11" t="n">
+        <v>372</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>131.45%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>339.7148</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>194.9779</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>144.7369</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>74.23%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>03690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>美团-W</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>640</v>
+      </c>
+      <c r="E12" t="n">
+        <v>349</v>
+      </c>
+      <c r="F12" t="n">
+        <v>291</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>83.38%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>531.2655</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>316.0909</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>215.1746</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>68.07%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002466</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天齐锂业</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>635</v>
+      </c>
+      <c r="E13" t="n">
+        <v>319</v>
+      </c>
+      <c r="F13" t="n">
+        <v>316</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>99.06%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>315.3437</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>173.2514</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>142.0923</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>82.02%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>685</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-8.76%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>253.5368</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>286.1055</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-32.5687</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-11.38%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>600809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>山西汾酒</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>616</v>
+      </c>
+      <c r="E15" t="n">
+        <v>359</v>
+      </c>
+      <c r="F15" t="n">
+        <v>257</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>71.59%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>563.9351</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>395.8154</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>168.1197</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>42.47%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>582</v>
+      </c>
+      <c r="E16" t="n">
+        <v>667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-85</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-12.74%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>308.7248</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>335.2132</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-26.4884</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-7.90%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>600438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>通威股份</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>573</v>
+      </c>
+      <c r="E17" t="n">
+        <v>297</v>
+      </c>
+      <c r="F17" t="n">
+        <v>276</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>92.93%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>286.7809</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>197.2457</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>89.5352</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>45.39%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>568</v>
+      </c>
+      <c r="E18" t="n">
+        <v>523</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>8.60%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>171.4793</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>207.1939</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-35.7146</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-17.24%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>603799</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>555</v>
+      </c>
+      <c r="E19" t="n">
+        <v>410</v>
+      </c>
+      <c r="F19" t="n">
+        <v>145</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>35.37%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>369.3338</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>268.8365</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>100.4973</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>37.38%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002475</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>542</v>
+      </c>
+      <c r="E20" t="n">
+        <v>521</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.03%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>272.8237</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>293.5646</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-20.7409</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-7.07%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>300014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>亿纬锂能</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>537</v>
+      </c>
+      <c r="E21" t="n">
+        <v>410</v>
+      </c>
+      <c r="F21" t="n">
+        <v>127</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>30.98%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>369.7942</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>284.0876</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>85.7066</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>30.17%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>300760</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>迈瑞医疗</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>523</v>
+      </c>
+      <c r="E22" t="n">
+        <v>612</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-89</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-14.54%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>406.5042</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>419.1197</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-12.6155</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-3.01%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宁波银行</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>504</v>
+      </c>
+      <c r="E23" t="n">
+        <v>564</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-10.64%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>198.5024</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>276.5091</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-78.0067</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-28.21%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>00700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>腾讯控股</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>503</v>
+      </c>
+      <c r="E24" t="n">
+        <v>472</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>501.1641</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>479.4948</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>21.6693</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>499</v>
+      </c>
+      <c r="E25" t="n">
+        <v>651</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-152</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-23.35%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>167.5518</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>225.1629</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-57.6111</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-25.59%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>484</v>
+      </c>
+      <c r="E26" t="n">
+        <v>496</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-2.42%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>178.9522</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>195.6662</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-16.7140</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-8.54%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>300015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>爱尔眼科</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>465</v>
+      </c>
+      <c r="E27" t="n">
+        <v>184</v>
+      </c>
+      <c r="F27" t="n">
+        <v>281</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>152.72%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>379.7718</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>127.7233</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>252.0485</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>197.34%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002812</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恩捷股份</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>450</v>
+      </c>
+      <c r="E28" t="n">
+        <v>406</v>
+      </c>
+      <c r="F28" t="n">
+        <v>44</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10.84%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>259.2482</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>249.5304</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>9.7178</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002459</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>晶澳科技</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>448</v>
+      </c>
+      <c r="E29" t="n">
+        <v>212</v>
+      </c>
+      <c r="F29" t="n">
+        <v>236</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>111.32%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>291.4049</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>169.4723</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>121.9326</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>71.95%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TCL中环</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>412</v>
+      </c>
+      <c r="E30" t="n">
+        <v>281</v>
+      </c>
+      <c r="F30" t="n">
+        <v>131</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>46.62%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>213.8944</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>150.2437</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>63.6507</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>42.36%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>409</v>
+      </c>
+      <c r="E31" t="n">
+        <v>304</v>
+      </c>
+      <c r="F31" t="n">
+        <v>105</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>34.54%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>180.5703</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>152.5868</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>27.9835</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18.34%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>600522</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中天科技</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>405</v>
+      </c>
+      <c r="E32" t="n">
+        <v>270</v>
+      </c>
+      <c r="F32" t="n">
+        <v>135</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>115.2872</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>89.6056</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>25.6816</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>28.66%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>399</v>
+      </c>
+      <c r="E33" t="n">
+        <v>487</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-88</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-18.07%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>148.8504</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>332.4216</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-183.5712</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-55.22%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>300122</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>智飞生物</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>377</v>
+      </c>
+      <c r="E34" t="n">
+        <v>551</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-174</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-31.58%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>143.0888</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>246.0231</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-102.9343</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-41.84%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>600309</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万华化学</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>357</v>
+      </c>
+      <c r="E35" t="n">
+        <v>191</v>
+      </c>
+      <c r="F35" t="n">
+        <v>166</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>86.91%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>152.1652</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>101.6905</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>50.4747</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>49.64%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>355</v>
+      </c>
+      <c r="E36" t="n">
+        <v>327</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8.56%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>151.8593</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>140.8856</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10.9737</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>300896</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>爱美客</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>322</v>
+      </c>
+      <c r="E37" t="n">
+        <v>151</v>
+      </c>
+      <c r="F37" t="n">
+        <v>171</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>113.25%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>138.5063</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>84.2453</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>54.2610</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>64.41%</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>320</v>
+      </c>
+      <c r="E38" t="n">
+        <v>263</v>
+      </c>
+      <c r="F38" t="n">
+        <v>57</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>21.67%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>139.8109</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>122.8652</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>16.9457</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>13.79%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002371</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>北方华创</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>319</v>
+      </c>
+      <c r="E39" t="n">
+        <v>417</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-98</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-23.50%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>150.1627</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>190.5539</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-40.3912</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-21.20%</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>316</v>
+      </c>
+      <c r="E40" t="n">
+        <v>548</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-232</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-42.34%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>235.0618</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>340.4902</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-105.4284</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-30.96%</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>洋河股份</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>312</v>
+      </c>
+      <c r="E41" t="n">
+        <v>165</v>
+      </c>
+      <c r="F41" t="n">
+        <v>147</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>89.09%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>356.5482</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>274.1066</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>82.4416</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>30.08%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>291</v>
+      </c>
+      <c r="E42" t="n">
+        <v>349</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-58</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-16.62%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>207.2135</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>212.0676</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-4.8541</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安银行</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>291</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-11</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-3.78%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>88.9065</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>105.7377</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>-16.8312</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-15.92%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方雨虹</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>279</v>
+      </c>
+      <c r="E44" t="n">
+        <v>234</v>
+      </c>
+      <c r="F44" t="n">
+        <v>45</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>172.8910</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>166.7815</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>6.1095</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>688599</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天合光能</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>268</v>
+      </c>
+      <c r="E45" t="n">
+        <v>212</v>
+      </c>
+      <c r="F45" t="n">
+        <v>56</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>26.42%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>187.6550</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>144.8827</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>42.7723</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>29.52%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>300274</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>阳光电源</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>267</v>
+      </c>
+      <c r="E46" t="n">
+        <v>321</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-54</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-16.82%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>185.4704</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>277.4567</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-91.9863</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-33.15%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000661</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长春高新</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>265</v>
+      </c>
+      <c r="E47" t="n">
+        <v>114</v>
+      </c>
+      <c r="F47" t="n">
+        <v>151</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>132.46%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>111.1876</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>48.9339</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>62.2537</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>127.22%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002709</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>264</v>
+      </c>
+      <c r="E48" t="n">
+        <v>189</v>
+      </c>
+      <c r="F48" t="n">
+        <v>75</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>39.68%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>135.6312</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>133.6593</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.9719</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002756</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>263</v>
+      </c>
+      <c r="E49" t="n">
+        <v>156</v>
+      </c>
+      <c r="F49" t="n">
+        <v>107</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>68.59%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>96.3963</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>65.8108</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>30.5855</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>46.47%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>261</v>
+      </c>
+      <c r="E50" t="n">
+        <v>315</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-54</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-17.14%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>57.6438</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>83.8736</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-26.2298</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>-31.27%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>601615</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>明阳智能</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>260</v>
+      </c>
+      <c r="E51" t="n">
+        <v>83</v>
+      </c>
+      <c r="F51" t="n">
+        <v>177</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>213.25%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>41.1007</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>9.6906</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>31.4101</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>324.13%</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>603986</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>259</v>
+      </c>
+      <c r="E52" t="n">
+        <v>272</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-4.78%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>193.6830</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>194.4010</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-0.7180</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>300498</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>温氏股份</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>257</v>
+      </c>
+      <c r="E53" t="n">
+        <v>357</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-28.01%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>96.3279</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>98.6805</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-2.3526</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-2.38%</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>牧原股份</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>253</v>
+      </c>
+      <c r="E54" t="n">
+        <v>443</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-190</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-42.89%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>106.1978</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>179.5681</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-73.3703</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>-40.86%</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000733</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>振华科技</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>251</v>
+      </c>
+      <c r="E55" t="n">
+        <v>290</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-13.45%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>192.0037</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>194.0941</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-2.0904</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>601225</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>陕西煤业</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>249</v>
+      </c>
+      <c r="E56" t="n">
+        <v>165</v>
+      </c>
+      <c r="F56" t="n">
+        <v>84</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>50.91%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>84.5950</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>49.5619</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>35.0331</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>70.69%</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中航光电</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>247</v>
+      </c>
+      <c r="E57" t="n">
+        <v>232</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>6.47%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>146.1196</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>122.7847</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>23.3349</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>19.00%</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>300769</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德方纳米</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>247</v>
+      </c>
+      <c r="E58" t="n">
+        <v>162</v>
+      </c>
+      <c r="F58" t="n">
+        <v>85</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>52.47%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>102.3771</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>71.5358</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>30.8413</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>43.11%</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>600256</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广汇能源</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>229</v>
+      </c>
+      <c r="E59" t="n">
+        <v>186</v>
+      </c>
+      <c r="F59" t="n">
+        <v>43</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>23.12%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>65.1490</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>77.3731</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>-12.2241</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>-15.80%</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>227</v>
+      </c>
+      <c r="E60" t="n">
+        <v>227</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>168.9378</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>108.5958</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>60.3420</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>55.57%</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>603606</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方电缆</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>224</v>
+      </c>
+      <c r="E61" t="n">
+        <v>103</v>
+      </c>
+      <c r="F61" t="n">
+        <v>121</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>117.48%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>82.9797</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>39.5179</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>43.4618</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>109.98%</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>219</v>
+      </c>
+      <c r="E62" t="n">
+        <v>127</v>
+      </c>
+      <c r="F62" t="n">
+        <v>92</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>72.44%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>67.1709</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>44.5609</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22.6100</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>50.74%</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>603501</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>韦尔股份</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>213</v>
+      </c>
+      <c r="E63" t="n">
+        <v>288</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-26.04%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>130.0636</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>177.4676</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>-47.4040</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>-26.71%</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>快手科技</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>212</v>
+      </c>
+      <c r="E64" t="n">
+        <v>136</v>
+      </c>
+      <c r="F64" t="n">
+        <v>76</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>55.88%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>169.3368</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>116.2845</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>53.0523</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>45.62%</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>300759</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>康龙化成</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>209</v>
+      </c>
+      <c r="E65" t="n">
+        <v>115</v>
+      </c>
+      <c r="F65" t="n">
+        <v>94</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>81.74%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>196.2374</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>59.2301</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>137.0073</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>231.31%</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>600600</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>青岛啤酒</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>202</v>
+      </c>
+      <c r="E66" t="n">
+        <v>121</v>
+      </c>
+      <c r="F66" t="n">
+        <v>81</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>66.94%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>77.9725</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>70.5977</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>7.3748</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>10.45%</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>198</v>
+      </c>
+      <c r="E67" t="n">
+        <v>228</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-13.16%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>67.0940</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>89.2819</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-22.1879</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>-24.85%</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>300124</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇川技术</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>198</v>
+      </c>
+      <c r="E68" t="n">
+        <v>184</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>7.61%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>115.0507</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>133.3910</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-18.3403</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-13.75%</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>02269</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>药明生物</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>190</v>
+      </c>
+      <c r="E69" t="n">
+        <v>142</v>
+      </c>
+      <c r="F69" t="n">
+        <v>48</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>33.80%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>105.4982</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>68.1346</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>37.3636</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>54.84%</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>600765</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中航重机</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>189</v>
+      </c>
+      <c r="E70" t="n">
+        <v>174</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>70.3654</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>74.1228</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-3.7574</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>-5.07%</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>300496</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中科创达</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>189</v>
+      </c>
+      <c r="E71" t="n">
+        <v>122</v>
+      </c>
+      <c r="F71" t="n">
+        <v>67</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>54.92%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>98.6497</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>64.2681</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>34.3816</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>53.50%</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>601088</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中国神华</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>189</v>
+      </c>
+      <c r="E72" t="n">
+        <v>202</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-6.44%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>49.1926</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>71.9849</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>-22.7923</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-31.66%</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>300390</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天华超净</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>188</v>
+      </c>
+      <c r="E73" t="n">
+        <v>103</v>
+      </c>
+      <c r="F73" t="n">
+        <v>85</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>82.52%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>55.5396</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>42.3281</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>13.2115</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>31.21%</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>603456</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>九洲药业</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>186</v>
+      </c>
+      <c r="E74" t="n">
+        <v>153</v>
+      </c>
+      <c r="F74" t="n">
+        <v>33</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>123.4258</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>76.7695</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>46.6563</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>60.77%</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002352</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>顺丰控股</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>183</v>
+      </c>
+      <c r="E75" t="n">
+        <v>84</v>
+      </c>
+      <c r="F75" t="n">
+        <v>99</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>117.86%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>80.2197</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>59.4475</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>20.7722</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>34.94%</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>601111</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中国国航</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>182</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>82</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>82.00%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>65.0320</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>42.9518</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>22.0802</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>51.41%</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>古井贡酒</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>179</v>
+      </c>
+      <c r="E77" t="n">
+        <v>53</v>
+      </c>
+      <c r="F77" t="n">
+        <v>126</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>237.74%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>156.7261</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>85.8043</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>70.9218</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>82.66%</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>178</v>
+      </c>
+      <c r="E78" t="n">
+        <v>148</v>
+      </c>
+      <c r="F78" t="n">
+        <v>30</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>20.27%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>85.5232</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>74.7573</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10.7659</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>14.40%</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>601689</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>拓普集团</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>174</v>
+      </c>
+      <c r="E79" t="n">
+        <v>115</v>
+      </c>
+      <c r="F79" t="n">
+        <v>59</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>51.30%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>46.1370</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>35.2827</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10.8543</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>30.76%</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>688063</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>派能科技</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>174</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>171</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>5700.00%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>46.9554</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>46.6151</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>13698.24%</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>600383</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金地集团</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>173</v>
+      </c>
+      <c r="E81" t="n">
+        <v>247</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-74</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-29.96%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>75.8855</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>97.2136</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-21.3281</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>-21.94%</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002920</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德赛西威</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>171</v>
+      </c>
+      <c r="E82" t="n">
+        <v>144</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>18.75%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>60.1997</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>45.5885</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>14.6112</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>32.05%</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>170</v>
+      </c>
+      <c r="E83" t="n">
+        <v>419</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-249</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-59.43%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>112.2604</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>203.1581</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-90.8977</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-44.74%</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002241</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>歌尔股份</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>170</v>
+      </c>
+      <c r="E84" t="n">
+        <v>269</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-99</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-36.80%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>58.1541</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>91.4532</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>-33.2991</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>-36.41%</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>300763</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>锦浪科技</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>168</v>
+      </c>
+      <c r="E85" t="n">
+        <v>87</v>
+      </c>
+      <c r="F85" t="n">
+        <v>81</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>93.10%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>84.7331</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>49.7124</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>35.0207</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>70.45%</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>603659</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>璞泰来</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>167</v>
+      </c>
+      <c r="E86" t="n">
+        <v>165</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>127.3405</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>117.2657</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10.0748</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000776</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发证券</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>167</v>
+      </c>
+      <c r="E87" t="n">
+        <v>179</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-6.70%</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>49.1009</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>56.6759</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>-7.5750</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>-13.37%</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000625</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安汽车</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>166</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>158</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1975.00%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>57.7150</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>13.1771</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>44.5379</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>337.99%</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>603345</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安井食品</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>165</v>
+      </c>
+      <c r="E89" t="n">
+        <v>49</v>
+      </c>
+      <c r="F89" t="n">
+        <v>116</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>236.73%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>74.9955</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>32.7520</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>42.2435</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>128.98%</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>600919</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>江苏银行</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>162</v>
+      </c>
+      <c r="E90" t="n">
+        <v>162</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>29.6484</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>28.0894</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.5590</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>5.55%</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002821</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>凯莱英</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>161</v>
+      </c>
+      <c r="E91" t="n">
+        <v>311</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-150</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-48.23%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>141.3031</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>187.0218</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-45.7187</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-24.45%</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>海大集团</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>160</v>
+      </c>
+      <c r="E92" t="n">
+        <v>142</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12.68%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>95.2220</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>107.9353</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>-12.7133</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-11.78%</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>300661</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>圣邦股份</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>158</v>
+      </c>
+      <c r="E93" t="n">
+        <v>227</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-69</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-30.40%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>155.3920</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>222.2116</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>-66.8196</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>-30.07%</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>600941</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中国移动</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>158</v>
+      </c>
+      <c r="E94" t="n">
+        <v>198</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-20.20%</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>33.8421</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>52.4138</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>-18.5717</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-35.43%</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>600763</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>通策医疗</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>155</v>
+      </c>
+      <c r="E95" t="n">
+        <v>63</v>
+      </c>
+      <c r="F95" t="n">
+        <v>92</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>146.03%</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>126.3823</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>34.2135</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>92.1688</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>269.39%</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>300363</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博腾股份</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>154</v>
+      </c>
+      <c r="E96" t="n">
+        <v>256</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-39.84%</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>64.4503</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>140.8245</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>-76.3742</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>-54.23%</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>603596</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>伯特利</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>154</v>
+      </c>
+      <c r="E97" t="n">
+        <v>103</v>
+      </c>
+      <c r="F97" t="n">
+        <v>51</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>49.51%</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>45.0221</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>29.2026</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15.8195</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>54.17%</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>603816</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>顾家家居</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>153</v>
+      </c>
+      <c r="E98" t="n">
+        <v>97</v>
+      </c>
+      <c r="F98" t="n">
+        <v>56</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>57.73%</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>58.5203</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>35.0521</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>23.4682</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>66.95%</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>605117</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德业股份</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>153</v>
+      </c>
+      <c r="E99" t="n">
+        <v>55</v>
+      </c>
+      <c r="F99" t="n">
+        <v>98</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>178.18%</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>40.8571</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>18.2410</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>22.6161</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>123.98%</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>600745</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>闻泰科技</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>152</v>
+      </c>
+      <c r="E100" t="n">
+        <v>144</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>5.56%</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>103.7739</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>121.2972</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>-17.5233</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>-14.45%</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002738</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中矿资源</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>151</v>
+      </c>
+      <c r="E101" t="n">
+        <v>56</v>
+      </c>
+      <c r="F101" t="n">
+        <v>95</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>169.64%</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>37.2518</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>10.2947</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26.9571</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>261.85%</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>